--- a/TestCase_IsThereAnyDeals.xlsx
+++ b/TestCase_IsThereAnyDeals.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="172">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -166,7 +166,13 @@
     <t>Developer :</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Tester :</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>CLIENT :</t>
@@ -225,6 +231,9 @@
   </si>
   <si>
     <t>Shows the homepage</t>
+  </si>
+  <si>
+    <t>09/20/2025</t>
   </si>
   <si>
     <t>Click the "User" button</t>
@@ -291,7 +300,7 @@
     <t>The system accepts the unverified email</t>
   </si>
   <si>
-    <t>Notes: This website allows login without email verification. This may be intentional or a potential issue.</t>
+    <t>This website allows login without email verification. This may be intentional or a potential issue.</t>
   </si>
   <si>
     <t>#SC02</t>
@@ -711,9 +720,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Fitur</t>
-  </si>
-  <si>
     <t>Bug Function</t>
   </si>
   <si>
@@ -724,7 +730,31 @@
 From QA</t>
   </si>
   <si>
+    <t>#D001</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
+  </si>
+  <si>
+    <t>Validation for wrong email format is only triggered after clicking Sign In.</t>
+  </si>
+  <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Show inline validation directly in email field for better UX</t>
+  </si>
+  <si>
+    <t>#D002</t>
+  </si>
+  <si>
+    <t>Unverified email can still login</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Should block login until email verified</t>
   </si>
 </sst>
 </file>
@@ -734,7 +764,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dddd\,\ mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -840,12 +870,6 @@
       <sz val="9.0"/>
       <color rgb="FF0B8043"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1624,6 +1648,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="21" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="44" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1679,16 +1706,16 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="13" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="13" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="21" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1720,9 +1747,6 @@
     <xf borderId="0" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="13" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,14 +1756,8 @@
     <xf borderId="48" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="21" fillId="16" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1747,35 +1765,38 @@
     <xf borderId="21" fillId="14" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="21" fillId="13" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="49" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="49" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="50" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="50" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="51" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="51" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="52" fillId="11" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="52" fillId="11" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="52" fillId="11" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="53" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="53" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="50" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="50" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="50" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="50" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1784,7 +1805,10 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="50" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="50" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9213,7 +9237,7 @@
       </c>
       <c r="E3" s="61">
         <f t="shared" ref="E3:M3" si="2">((SUM(E4:E987)/COUNTA($A$4:$A987)))</f>
-        <v>1</v>
+        <v>0.2142857143</v>
       </c>
       <c r="F3" s="61">
         <f t="shared" si="2"/>
@@ -9225,11 +9249,11 @@
       </c>
       <c r="H3" s="61">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.07142857143</v>
       </c>
       <c r="I3" s="61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.07142857143</v>
       </c>
       <c r="J3" s="61">
         <f t="shared" si="2"/>
@@ -9237,7 +9261,7 @@
       </c>
       <c r="K3" s="61">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.07142857143</v>
       </c>
       <c r="L3" s="61">
         <f t="shared" si="2"/>
@@ -9249,7 +9273,7 @@
       </c>
       <c r="N3" s="62">
         <f t="shared" ref="N3:S3" si="3">SUM(N4:N987)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="62">
         <f t="shared" si="3"/>
@@ -9292,7 +9316,7 @@
       </c>
       <c r="E4" s="65">
         <f>'R01-Authentication'!C2/'R01-Authentication'!$G$2</f>
-        <v>1</v>
+        <v>0.2142857143</v>
       </c>
       <c r="F4" s="65">
         <f>'R01-Authentication'!D2/'R01-Authentication'!$G$2</f>
@@ -9304,11 +9328,11 @@
       </c>
       <c r="H4" s="65">
         <f>'R01-Authentication'!C3/'R01-Authentication'!$G$2</f>
-        <v>1</v>
+        <v>0.07142857143</v>
       </c>
       <c r="I4" s="65">
         <f>'R01-Authentication'!D3/'R01-Authentication'!$G$2</f>
-        <v>0</v>
+        <v>0.07142857143</v>
       </c>
       <c r="J4" s="65">
         <f>'R01-Authentication'!E3/'R01-Authentication'!$G$2</f>
@@ -9316,7 +9340,7 @@
       </c>
       <c r="K4" s="65">
         <f>'R01-Authentication'!C4/'R01-Authentication'!$G$2</f>
-        <v>1</v>
+        <v>0.07142857143</v>
       </c>
       <c r="L4" s="65">
         <f>'R01-Authentication'!D4/'R01-Authentication'!$G$2</f>
@@ -9328,7 +9352,7 @@
       </c>
       <c r="N4" s="66">
         <f>COUNTIFS('List Feedback'!$G$2:$G$988,Summary!N2,'List Feedback'!$C$2:$C$988,Summary!$A4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" s="66">
         <f>COUNTIFS('List Feedback'!$G$2:$G$988,Summary!O2,'List Feedback'!$C$2:$C$988,Summary!$A4)</f>
@@ -12355,27 +12379,26 @@
       <c r="B2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="76">
-        <f>COUNTIFS($D6:$D$806, "Success", $A$6:$A806, "=#TC*")</f>
-        <v>14</v>
-      </c>
-      <c r="D2" s="76">
-        <f>COUNTIFS($D6:$D$806, "Failed", $A$6:$A806, "=#TC*")</f>
+      <c r="C2" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="77">
+        <f>COUNTIFS($D6:$D$804, "Failed", $A$6:$A804, "=#TC*")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="76">
-        <f>COUNTIFS($D6:$D$806, "Need Test", $A$6:$A806, "=#TC*")</f>
+      <c r="E2" s="77">
+        <f>COUNTIFS($D6:$D$804, "Need Test", $A$6:$A804, "=#TC*")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="77">
         <f>$G$2-($D$2+$E$2+$C$2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="77">
+        <v>11</v>
+      </c>
+      <c r="G2" s="78">
         <f>COUNTIF($A:$A, "#TC*")</f>
         <v>14</v>
       </c>
-      <c r="H2" s="77">
+      <c r="H2" s="78">
         <f>COUNTIF($A:$A, "#SC*")</f>
         <v>6</v>
       </c>
@@ -12401,26 +12424,25 @@
     <row r="3">
       <c r="A3" s="69"/>
       <c r="B3" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="76">
-        <f>COUNTIFS($G6:$G$806, "Success", $A$6:$A806, "=#TC*")</f>
-        <v>14</v>
-      </c>
-      <c r="D3" s="76">
-        <f>COUNTIFS($G6:$G$806, "Failed", $A$6:$A806, "=#TC*")</f>
+        <v>51</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="77">
+        <f>COUNTIFS($G6:$G$804, "Failed", $A$6:$A804, "=#TC*")</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="77">
+        <f>COUNTIFS($G6:$G$804, "Need Test", $A$6:$A804, "=#TC*")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="76">
-        <f>COUNTIFS($G6:$G$806, "Need Test", $A$6:$A806, "=#TC*")</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="76">
+      <c r="F3" s="77">
         <f>$G$2-($D$3+$E$3+$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+        <v>12</v>
+      </c>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="69"/>
       <c r="J3" s="72"/>
       <c r="K3" s="73"/>
@@ -12443,26 +12465,25 @@
     <row r="4">
       <c r="A4" s="69"/>
       <c r="B4" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="76">
-        <f>COUNTIFS($J6:$J$806, "Success", $A$6:$A806, "=#TC*")</f>
-        <v>14</v>
-      </c>
-      <c r="D4" s="76">
-        <f>COUNTIFS($J6:$J$806, "Failed", $A$6:$A806, "=#TC*")</f>
+        <v>53</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="77">
+        <f>COUNTIFS($J6:$J$804, "Failed", $A$6:$A804, "=#TC*")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="76">
-        <f>COUNTIFS($J6:$J$806, "Need Test", $A$6:$A806, "=#TC*")</f>
+      <c r="E4" s="77">
+        <f>COUNTIFS($J6:$J$804, "Need Test", $A$6:$A804, "=#TC*")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="76">
+      <c r="F4" s="77">
         <f>$G$2-($D$4+$E$4+$C$4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="69"/>
       <c r="J4" s="72"/>
       <c r="K4" s="73"/>
@@ -12511,22 +12532,22 @@
       <c r="Z5" s="74"/>
     </row>
     <row r="6">
-      <c r="A6" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
+      <c r="A6" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="74"/>
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
@@ -12543,16 +12564,16 @@
       <c r="Z6" s="74"/>
     </row>
     <row r="7">
-      <c r="A7" s="83"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="69"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="69"/>
-      <c r="J7" s="84"/>
+      <c r="J7" s="85"/>
       <c r="K7" s="73"/>
       <c r="L7" s="73"/>
       <c r="M7" s="74"/>
@@ -12571,37 +12592,37 @@
       <c r="Z7" s="74"/>
     </row>
     <row r="8">
-      <c r="A8" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="87" t="s">
+      <c r="A8" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="88" t="str">
+      <c r="D8" s="89" t="str">
         <f>IF(COUNTIF(D11:D15, "Failed") &gt; 0, "Failed",IF( COUNTIF(D11:D15, "Pending") &gt; 0, "Pending",IF(COUNTA(D11:D15) = 0, "", "Success")))</f>
         <v>Success</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="88" t="str">
+      <c r="E8" s="90"/>
+      <c r="F8" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="89" t="str">
         <f>IF(COUNTIF(G11:G15, "Failed") &gt; 0, "Failed",IF( COUNTIF(G11:G15, "Pending") &gt; 0, "Pending",IF(COUNTA(G11:G15) = 0, "", "Success")))</f>
         <v>Success</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="88" t="str">
+      <c r="H8" s="90"/>
+      <c r="I8" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="89" t="str">
         <f>IF(COUNTIF(J11:J15, "Failed") &gt; 0, "Failed",IF( COUNTIF(J11:J15, "Pending") &gt; 0, "Pending",IF(COUNTA(J11:J15) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+        <v/>
+      </c>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
       <c r="M8" s="74"/>
       <c r="N8" s="74"/>
       <c r="O8" s="74"/>
@@ -12618,30 +12639,30 @@
       <c r="Z8" s="74"/>
     </row>
     <row r="9">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="92" t="s">
+      <c r="B9" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="93"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="92" t="s">
+      <c r="C9" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="93"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="92" t="s">
+      <c r="D9" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="94"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="94"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="89"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="74"/>
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
@@ -12658,35 +12679,35 @@
       <c r="Z9" s="74"/>
     </row>
     <row r="10">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="94" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="94" t="s">
+      <c r="E10" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="94" t="s">
+      <c r="H10" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="95" t="s">
         <v>62</v>
+      </c>
+      <c r="K10" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="M10" s="74"/>
       <c r="N10" s="74"/>
@@ -12704,30 +12725,30 @@
       <c r="Z10" s="74"/>
     </row>
     <row r="11">
-      <c r="A11" s="95">
+      <c r="A11" s="96">
         <v>1.0</v>
       </c>
-      <c r="B11" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="95" t="s">
+      <c r="B11" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="98"/>
       <c r="F11" s="99"/>
-      <c r="G11" s="95" t="s">
+      <c r="G11" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
+      <c r="H11" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="77"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="74"/>
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
@@ -12744,28 +12765,30 @@
       <c r="Z11" s="74"/>
     </row>
     <row r="12">
-      <c r="A12" s="102">
+      <c r="A12" s="103">
         <v>2.0</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="104" t="s">
+      <c r="B12" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="105" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="98"/>
       <c r="F12" s="99"/>
-      <c r="G12" s="104" t="s">
+      <c r="G12" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
+      <c r="H12" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="74"/>
       <c r="N12" s="74"/>
       <c r="O12" s="74"/>
@@ -12782,30 +12805,30 @@
       <c r="Z12" s="74"/>
     </row>
     <row r="13">
-      <c r="A13" s="95">
+      <c r="A13" s="96">
         <v>3.0</v>
       </c>
-      <c r="B13" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="95" t="s">
+      <c r="B13" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="98"/>
       <c r="F13" s="99"/>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="98"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
+      <c r="H13" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="77"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="74"/>
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
@@ -12822,30 +12845,30 @@
       <c r="Z13" s="74"/>
     </row>
     <row r="14">
-      <c r="A14" s="102">
+      <c r="A14" s="103">
         <v>4.0</v>
       </c>
-      <c r="B14" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="95" t="s">
+      <c r="B14" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="98"/>
       <c r="F14" s="99"/>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
+      <c r="H14" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="77"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="74"/>
       <c r="N14" s="74"/>
       <c r="O14" s="74"/>
@@ -12862,30 +12885,30 @@
       <c r="Z14" s="74"/>
     </row>
     <row r="15">
-      <c r="A15" s="95">
+      <c r="A15" s="96">
         <v>5.0</v>
       </c>
-      <c r="B15" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="95" t="s">
+      <c r="B15" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E15" s="98"/>
       <c r="F15" s="99"/>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
+      <c r="H15" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="77"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="74"/>
       <c r="N15" s="74"/>
       <c r="O15" s="74"/>
@@ -12902,26 +12925,28 @@
       <c r="Z15" s="74"/>
     </row>
     <row r="16">
-      <c r="A16" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="106" t="s">
+      <c r="A16" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="106" t="s">
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111"/>
+      <c r="H16" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="111"/>
+      <c r="J16" s="101"/>
       <c r="K16" s="112"/>
       <c r="L16" s="112"/>
       <c r="M16" s="74"/>
@@ -12968,37 +12993,37 @@
       <c r="Z17" s="74"/>
     </row>
     <row r="18">
-      <c r="A18" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="87" t="s">
+      <c r="A18" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="88" t="str">
+      <c r="D18" s="89" t="str">
         <f>IF(COUNTIF(D21:D26, "Failed") &gt; 0, "Failed",IF( COUNTIF(D21:D26, "Pending") &gt; 0, "Pending",IF(COUNTA(D21:D26) = 0, "", "Success")))</f>
         <v>Success</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="88" t="str">
+      <c r="E18" s="90"/>
+      <c r="F18" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="89" t="str">
         <f>IF(COUNTIF(G21:G26, "Failed") &gt; 0, "Failed",IF( COUNTIF(G21:G26, "Pending") &gt; 0, "Pending",IF(COUNTA(G21:G26) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="88" t="str">
+        <v>Failed</v>
+      </c>
+      <c r="H18" s="90"/>
+      <c r="I18" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="89" t="str">
         <f>IF(COUNTIF(J21:J26, "Failed") &gt; 0, "Failed",IF( COUNTIF(J21:J26, "Pending") &gt; 0, "Pending",IF(COUNTA(J21:J26) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K18" s="89"/>
-      <c r="L18" s="90"/>
+        <v/>
+      </c>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
       <c r="M18" s="74"/>
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
@@ -13015,30 +13040,30 @@
       <c r="Z18" s="74"/>
     </row>
     <row r="19">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="92" t="s">
+      <c r="B19" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="92" t="s">
+      <c r="C19" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="92" t="s">
+      <c r="D19" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="94"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="93"/>
-      <c r="L19" s="89"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="90"/>
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
@@ -13055,35 +13080,35 @@
       <c r="Z19" s="74"/>
     </row>
     <row r="20">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="94" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="94" t="s">
+      <c r="E20" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="94" t="s">
+      <c r="H20" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="95" t="s">
         <v>62</v>
+      </c>
+      <c r="K20" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="95" t="s">
+        <v>64</v>
       </c>
       <c r="M20" s="74"/>
       <c r="N20" s="74"/>
@@ -13101,30 +13126,30 @@
       <c r="Z20" s="74"/>
     </row>
     <row r="21">
-      <c r="A21" s="95">
+      <c r="A21" s="96">
         <v>1.0</v>
       </c>
-      <c r="B21" s="96" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="95" t="s">
+      <c r="B21" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="98"/>
       <c r="F21" s="99"/>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
+      <c r="H21" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="77"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
       <c r="O21" s="74"/>
@@ -13144,27 +13169,27 @@
       <c r="A22" s="113">
         <v>2.0</v>
       </c>
-      <c r="B22" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="95" t="s">
+      <c r="B22" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="98"/>
       <c r="F22" s="99"/>
-      <c r="G22" s="95" t="s">
+      <c r="G22" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="98"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
+      <c r="H22" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="77"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="74"/>
       <c r="N22" s="74"/>
       <c r="O22" s="74"/>
@@ -13184,27 +13209,27 @@
       <c r="A23" s="113">
         <v>3.0</v>
       </c>
-      <c r="B23" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="95" t="s">
+      <c r="B23" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="98"/>
       <c r="F23" s="99"/>
-      <c r="G23" s="95" t="s">
+      <c r="G23" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
+      <c r="H23" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="77"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
       <c r="M23" s="74"/>
       <c r="N23" s="74"/>
       <c r="O23" s="74"/>
@@ -13224,23 +13249,27 @@
       <c r="A24" s="114">
         <v>4.0</v>
       </c>
-      <c r="B24" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="105" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="104" t="s">
+      <c r="B24" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="105" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="98"/>
       <c r="F24" s="99"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="101"/>
+      <c r="G24" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="77"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
       <c r="M24" s="74"/>
       <c r="N24" s="74"/>
       <c r="O24" s="74"/>
@@ -13260,23 +13289,27 @@
       <c r="A25" s="113">
         <v>5.0</v>
       </c>
-      <c r="B25" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="104" t="s">
+      <c r="B25" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="105" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="98"/>
       <c r="F25" s="99"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
+      <c r="G25" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="77"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
       <c r="M25" s="74"/>
       <c r="N25" s="74"/>
       <c r="O25" s="74"/>
@@ -13296,27 +13329,29 @@
       <c r="A26" s="114">
         <v>6.0</v>
       </c>
-      <c r="B26" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="95" t="s">
+      <c r="B26" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E26" s="98"/>
       <c r="F26" s="99"/>
-      <c r="G26" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="98"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
+      <c r="G26" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
       <c r="M26" s="74"/>
       <c r="N26" s="74"/>
       <c r="O26" s="74"/>
@@ -13361,20 +13396,22 @@
       <c r="Z27" s="74"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="74"/>
-      <c r="B28" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
+      <c r="A28" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
       <c r="M28" s="74"/>
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
@@ -13419,22 +13456,37 @@
       <c r="Z29" s="74"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
+      <c r="A30" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="89" t="str">
+        <f>IF(COUNTIF(D33:D36, "Failed") &gt; 0, "Failed",IF( COUNTIF(D33:D36, "Pending") &gt; 0, "Pending",IF(COUNTA(D33:D36) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E30" s="90"/>
+      <c r="F30" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="89" t="str">
+        <f>IF(COUNTIF(G33:G36, "Failed") &gt; 0, "Failed",IF( COUNTIF(G33:G36, "Pending") &gt; 0, "Pending",IF(COUNTA(G33:G36) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H30" s="90"/>
+      <c r="I30" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="89" t="str">
+        <f>IF(COUNTIF(J33:J36, "Failed") &gt; 0, "Failed",IF( COUNTIF(J33:J36, "Pending") &gt; 0, "Pending",IF(COUNTA(J33:J36) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91"/>
       <c r="M30" s="74"/>
       <c r="N30" s="74"/>
       <c r="O30" s="74"/>
@@ -13451,18 +13503,30 @@
       <c r="Z30" s="74"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
+      <c r="A31" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="94"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="94"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="94"/>
+      <c r="L31" s="90"/>
       <c r="M31" s="74"/>
       <c r="N31" s="74"/>
       <c r="O31" s="74"/>
@@ -13479,37 +13543,36 @@
       <c r="Z31" s="74"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="88" t="str">
-        <f>IF(COUNTIF(D35:D38, "Failed") &gt; 0, "Failed",IF( COUNTIF(D35:D38, "Pending") &gt; 0, "Pending",IF(COUNTA(D35:D38) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="88" t="str">
-        <f>IF(COUNTIF(G35:G38, "Failed") &gt; 0, "Failed",IF( COUNTIF(G35:G38, "Pending") &gt; 0, "Pending",IF(COUNTA(G35:G38) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H32" s="89"/>
-      <c r="I32" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J32" s="88" t="str">
-        <f>IF(COUNTIF(J35:J38, "Failed") &gt; 0, "Failed",IF( COUNTIF(J35:J38, "Pending") &gt; 0, "Pending",IF(COUNTA(J35:J38) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K32" s="89"/>
-      <c r="L32" s="90"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M32" s="74"/>
       <c r="N32" s="74"/>
       <c r="O32" s="74"/>
@@ -13526,30 +13589,30 @@
       <c r="Z32" s="74"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="93"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="93"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="93"/>
-      <c r="L33" s="89"/>
+      <c r="A33" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="77"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
       <c r="O33" s="74"/>
@@ -13566,36 +13629,30 @@
       <c r="Z33" s="74"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A34" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B34" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="77"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
       <c r="M34" s="74"/>
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
@@ -13612,30 +13669,30 @@
       <c r="Z34" s="74"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B35" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="95" t="s">
+      <c r="A35" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="98"/>
       <c r="F35" s="99"/>
-      <c r="G35" s="95" t="s">
+      <c r="G35" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="98"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
+      <c r="H35" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="77"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
       <c r="M35" s="74"/>
       <c r="N35" s="74"/>
       <c r="O35" s="74"/>
@@ -13653,29 +13710,29 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B36" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B36" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="98"/>
       <c r="F36" s="99"/>
-      <c r="G36" s="95" t="s">
+      <c r="G36" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="98"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
+      <c r="H36" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="77"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
       <c r="M36" s="74"/>
       <c r="N36" s="74"/>
       <c r="O36" s="74"/>
@@ -13692,30 +13749,18 @@
       <c r="Z36" s="74"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B37" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="98"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="98"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
       <c r="M37" s="74"/>
       <c r="N37" s="74"/>
       <c r="O37" s="74"/>
@@ -13732,30 +13777,37 @@
       <c r="Z37" s="74"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B38" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="105" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="98"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="98"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
+      <c r="A38" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="89" t="str">
+        <f>IF(COUNTIF(D41:D44, "Failed") &gt; 0, "Failed",IF( COUNTIF(D41:D44, "Pending") &gt; 0, "Pending",IF(COUNTA(D41:D44) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E38" s="90"/>
+      <c r="F38" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="89" t="str">
+        <f>IF(COUNTIF(G41:G44, "Failed") &gt; 0, "Failed",IF( COUNTIF(G41:G44, "Pending") &gt; 0, "Pending",IF(COUNTA(G41:G44) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H38" s="90"/>
+      <c r="I38" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="89" t="str">
+        <f>IF(COUNTIF(J41:J44, "Failed") &gt; 0, "Failed",IF( COUNTIF(J41:J44, "Pending") &gt; 0, "Pending",IF(COUNTA(J41:J44) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K38" s="90"/>
+      <c r="L38" s="91"/>
       <c r="M38" s="74"/>
       <c r="N38" s="74"/>
       <c r="O38" s="74"/>
@@ -13772,18 +13824,30 @@
       <c r="Z38" s="74"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
+      <c r="A39" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="94"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="94"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="94"/>
+      <c r="L39" s="90"/>
       <c r="M39" s="74"/>
       <c r="N39" s="74"/>
       <c r="O39" s="74"/>
@@ -13800,37 +13864,36 @@
       <c r="Z39" s="74"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="88" t="str">
-        <f>IF(COUNTIF(D43:D46, "Failed") &gt; 0, "Failed",IF( COUNTIF(D43:D46, "Pending") &gt; 0, "Pending",IF(COUNTA(D43:D46) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="88" t="str">
-        <f>IF(COUNTIF(G43:G46, "Failed") &gt; 0, "Failed",IF( COUNTIF(G43:G46, "Pending") &gt; 0, "Pending",IF(COUNTA(G43:G46) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H40" s="89"/>
-      <c r="I40" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J40" s="88" t="str">
-        <f>IF(COUNTIF(J43:J46, "Failed") &gt; 0, "Failed",IF( COUNTIF(J43:J46, "Pending") &gt; 0, "Pending",IF(COUNTA(J43:J46) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K40" s="89"/>
-      <c r="L40" s="90"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M40" s="74"/>
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
@@ -13847,30 +13910,30 @@
       <c r="Z40" s="74"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="93"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="93"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" s="93"/>
-      <c r="L41" s="89"/>
+      <c r="A41" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B41" s="97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="98"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="77"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
       <c r="M41" s="74"/>
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
@@ -13887,36 +13950,30 @@
       <c r="Z41" s="74"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J42" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L42" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A42" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B42" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="77"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
       <c r="M42" s="74"/>
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
@@ -13933,30 +13990,30 @@
       <c r="Z42" s="74"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B43" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="95" t="s">
+      <c r="A43" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B43" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="98"/>
       <c r="F43" s="99"/>
-      <c r="G43" s="95" t="s">
+      <c r="G43" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="98"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
+      <c r="H43" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="77"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
       <c r="M43" s="74"/>
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
@@ -13974,29 +14031,29 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B44" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="98"/>
       <c r="F44" s="99"/>
-      <c r="G44" s="95" t="s">
+      <c r="G44" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
+      <c r="H44" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="77"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
       <c r="M44" s="74"/>
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
@@ -14013,30 +14070,30 @@
       <c r="Z44" s="74"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B45" s="105" t="s">
+      <c r="A45" s="115">
+        <v>5.0</v>
+      </c>
+      <c r="B45" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="109"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="98"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="98"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
       <c r="M45" s="74"/>
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
@@ -14053,30 +14110,18 @@
       <c r="Z45" s="74"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B46" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="98"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="98"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
       <c r="M46" s="74"/>
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
@@ -14093,24 +14138,37 @@
       <c r="Z46" s="74"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="116">
-        <v>5.0</v>
-      </c>
-      <c r="B47" s="107" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="117"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="112"/>
+      <c r="A47" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="89" t="str">
+        <f>IF(COUNTIF(D50:D53, "Failed") &gt; 0, "Failed",IF( COUNTIF(D50:D53, "Pending") &gt; 0, "Pending",IF(COUNTA(D50:D53) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E47" s="90"/>
+      <c r="F47" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="89" t="str">
+        <f>IF(COUNTIF(G50:G53, "Failed") &gt; 0, "Failed",IF( COUNTIF(G50:G53, "Pending") &gt; 0, "Pending",IF(COUNTA(G50:G53) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H47" s="90"/>
+      <c r="I47" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="89" t="str">
+        <f>IF(COUNTIF(J50:J53, "Failed") &gt; 0, "Failed",IF( COUNTIF(J50:J53, "Pending") &gt; 0, "Pending",IF(COUNTA(J50:J53) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K47" s="90"/>
+      <c r="L47" s="91"/>
       <c r="M47" s="74"/>
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
@@ -14127,18 +14185,30 @@
       <c r="Z47" s="74"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
+      <c r="A48" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="94"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="94"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="94"/>
+      <c r="L48" s="90"/>
       <c r="M48" s="74"/>
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
@@ -14155,37 +14225,36 @@
       <c r="Z48" s="74"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="88" t="str">
-        <f>IF(COUNTIF(D52:D55, "Failed") &gt; 0, "Failed",IF( COUNTIF(D52:D55, "Pending") &gt; 0, "Pending",IF(COUNTA(D52:D55) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E49" s="89"/>
-      <c r="F49" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="88" t="str">
-        <f>IF(COUNTIF(G52:G55, "Failed") &gt; 0, "Failed",IF( COUNTIF(G52:G55, "Pending") &gt; 0, "Pending",IF(COUNTA(G52:G55) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H49" s="89"/>
-      <c r="I49" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J49" s="88" t="str">
-        <f>IF(COUNTIF(J52:J55, "Failed") &gt; 0, "Failed",IF( COUNTIF(J52:J55, "Pending") &gt; 0, "Pending",IF(COUNTA(J52:J55) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K49" s="89"/>
-      <c r="L49" s="90"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M49" s="74"/>
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
@@ -14202,30 +14271,30 @@
       <c r="Z49" s="74"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="93"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H50" s="93"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K50" s="93"/>
-      <c r="L50" s="89"/>
+      <c r="A50" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H50" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="77"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
       <c r="M50" s="74"/>
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
@@ -14242,36 +14311,30 @@
       <c r="Z50" s="74"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J51" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L51" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A51" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B51" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="98"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H51" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="77"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
       <c r="M51" s="74"/>
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
@@ -14288,30 +14351,30 @@
       <c r="Z51" s="74"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B52" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="95" t="s">
+      <c r="A52" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B52" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E52" s="98"/>
       <c r="F52" s="99"/>
-      <c r="G52" s="95" t="s">
+      <c r="G52" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="98"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K52" s="101"/>
-      <c r="L52" s="101"/>
+      <c r="H52" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="77"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
       <c r="M52" s="74"/>
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
@@ -14329,29 +14392,29 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B53" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B53" s="106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="98"/>
       <c r="F53" s="99"/>
-      <c r="G53" s="95" t="s">
+      <c r="G53" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H53" s="98"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K53" s="101"/>
-      <c r="L53" s="101"/>
+      <c r="H53" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="77"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
       <c r="M53" s="74"/>
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
@@ -14369,29 +14432,29 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B54" s="105" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B54" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="109"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H54" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="98"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" s="98"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K54" s="101"/>
-      <c r="L54" s="101"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="112"/>
+      <c r="L54" s="112"/>
       <c r="M54" s="74"/>
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
@@ -14409,29 +14472,29 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B55" s="105" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="105" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="95" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B55" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="98"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="95" t="s">
+      <c r="E55" s="109"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="98"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K55" s="101"/>
-      <c r="L55" s="101"/>
+      <c r="H55" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="111"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="112"/>
       <c r="M55" s="74"/>
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
@@ -14448,24 +14511,18 @@
       <c r="Z55" s="74"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B56" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="117"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="110"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="112"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
       <c r="M56" s="74"/>
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
@@ -14482,24 +14539,37 @@
       <c r="Z56" s="74"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B57" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="117"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="110"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
+      <c r="A57" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="89" t="str">
+        <f>IF(COUNTIF(D60:D63, "Failed") &gt; 0, "Failed",IF( COUNTIF(D60:D63, "Pending") &gt; 0, "Pending",IF(COUNTA(D60:D63) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E57" s="90"/>
+      <c r="F57" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="89" t="str">
+        <f>IF(COUNTIF(G60:G63, "Failed") &gt; 0, "Failed",IF( COUNTIF(G60:G63, "Pending") &gt; 0, "Pending",IF(COUNTA(G60:G63) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H57" s="90"/>
+      <c r="I57" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J57" s="89" t="str">
+        <f>IF(COUNTIF(J60:J63, "Failed") &gt; 0, "Failed",IF( COUNTIF(J60:J63, "Pending") &gt; 0, "Pending",IF(COUNTA(J60:J63) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K57" s="90"/>
+      <c r="L57" s="91"/>
       <c r="M57" s="74"/>
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
@@ -14516,18 +14586,30 @@
       <c r="Z57" s="74"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="74"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="74"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="74"/>
+      <c r="A58" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="94"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="94"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" s="94"/>
+      <c r="L58" s="90"/>
       <c r="M58" s="74"/>
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
@@ -14544,37 +14626,36 @@
       <c r="Z58" s="74"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="88" t="str">
-        <f>IF(COUNTIF(D62:D65, "Failed") &gt; 0, "Failed",IF( COUNTIF(D62:D65, "Pending") &gt; 0, "Pending",IF(COUNTA(D62:D65) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E59" s="89"/>
-      <c r="F59" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" s="88" t="str">
-        <f>IF(COUNTIF(G62:G65, "Failed") &gt; 0, "Failed",IF( COUNTIF(G62:G65, "Pending") &gt; 0, "Pending",IF(COUNTA(G62:G65) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H59" s="89"/>
-      <c r="I59" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J59" s="88" t="str">
-        <f>IF(COUNTIF(J62:J65, "Failed") &gt; 0, "Failed",IF( COUNTIF(J62:J65, "Pending") &gt; 0, "Pending",IF(COUNTA(J62:J65) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K59" s="89"/>
-      <c r="L59" s="90"/>
+      <c r="A59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M59" s="74"/>
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
@@ -14591,30 +14672,30 @@
       <c r="Z59" s="74"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="93"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="93"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="93"/>
-      <c r="L60" s="89"/>
+      <c r="A60" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B60" s="97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="98"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="77"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="102"/>
+      <c r="L60" s="102"/>
       <c r="M60" s="74"/>
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
@@ -14631,36 +14712,30 @@
       <c r="Z60" s="74"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="79"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J61" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K61" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L61" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A61" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B61" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="98"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="77"/>
+      <c r="J61" s="101"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
       <c r="M61" s="74"/>
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
@@ -14677,30 +14752,30 @@
       <c r="Z61" s="74"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="95" t="s">
+      <c r="A62" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B62" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="98"/>
       <c r="F62" s="99"/>
-      <c r="G62" s="95" t="s">
+      <c r="G62" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H62" s="98"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K62" s="101"/>
-      <c r="L62" s="101"/>
+      <c r="H62" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="77"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
       <c r="M62" s="74"/>
       <c r="N62" s="74"/>
       <c r="O62" s="74"/>
@@ -14718,29 +14793,29 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B63" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B63" s="106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E63" s="98"/>
       <c r="F63" s="99"/>
-      <c r="G63" s="95" t="s">
+      <c r="G63" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="H63" s="98"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K63" s="101"/>
-      <c r="L63" s="101"/>
+      <c r="H63" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="77"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
       <c r="M63" s="74"/>
       <c r="N63" s="74"/>
       <c r="O63" s="74"/>
@@ -14758,29 +14833,29 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B64" s="105" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B64" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="109"/>
+      <c r="F64" s="110"/>
+      <c r="G64" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="98"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="98"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K64" s="101"/>
-      <c r="L64" s="101"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="101"/>
+      <c r="K64" s="112"/>
+      <c r="L64" s="112"/>
       <c r="M64" s="74"/>
       <c r="N64" s="74"/>
       <c r="O64" s="74"/>
@@ -14798,29 +14873,29 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B65" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="95" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B65" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E65" s="98"/>
-      <c r="F65" s="99"/>
-      <c r="G65" s="104" t="s">
+      <c r="E65" s="109"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H65" s="98"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K65" s="101"/>
-      <c r="L65" s="101"/>
+      <c r="H65" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="111"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="112"/>
+      <c r="L65" s="112"/>
       <c r="M65" s="74"/>
       <c r="N65" s="74"/>
       <c r="O65" s="74"/>
@@ -14837,24 +14912,18 @@
       <c r="Z65" s="74"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B66" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="117"/>
-      <c r="E66" s="108"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="110"/>
-      <c r="J66" s="111"/>
-      <c r="K66" s="112"/>
-      <c r="L66" s="112"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="74"/>
       <c r="M66" s="74"/>
       <c r="N66" s="74"/>
       <c r="O66" s="74"/>
@@ -14871,24 +14940,37 @@
       <c r="Z66" s="74"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B67" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="117"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="112"/>
-      <c r="L67" s="112"/>
+      <c r="A67" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="89" t="str">
+        <f>IF(COUNTIF(D70:D73, "Failed") &gt; 0, "Failed",IF( COUNTIF(D70:D73, "Pending") &gt; 0, "Pending",IF(COUNTA(D70:D73) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E67" s="90"/>
+      <c r="F67" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="89" t="str">
+        <f>IF(COUNTIF(G70:G73, "Failed") &gt; 0, "Failed",IF( COUNTIF(G70:G73, "Pending") &gt; 0, "Pending",IF(COUNTA(G70:G73) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H67" s="90"/>
+      <c r="I67" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="89" t="str">
+        <f>IF(COUNTIF(J70:J73, "Failed") &gt; 0, "Failed",IF( COUNTIF(J70:J73, "Pending") &gt; 0, "Pending",IF(COUNTA(J70:J73) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K67" s="90"/>
+      <c r="L67" s="91"/>
       <c r="M67" s="74"/>
       <c r="N67" s="74"/>
       <c r="O67" s="74"/>
@@ -14905,18 +14987,30 @@
       <c r="Z67" s="74"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="74"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="74"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
+      <c r="A68" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="94"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" s="94"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68" s="94"/>
+      <c r="L68" s="90"/>
       <c r="M68" s="74"/>
       <c r="N68" s="74"/>
       <c r="O68" s="74"/>
@@ -14933,37 +15027,36 @@
       <c r="Z68" s="74"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="88" t="str">
-        <f>IF(COUNTIF(D72:D75, "Failed") &gt; 0, "Failed",IF( COUNTIF(D72:D75, "Pending") &gt; 0, "Pending",IF(COUNTA(D72:D75) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E69" s="89"/>
-      <c r="F69" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G69" s="88" t="str">
-        <f>IF(COUNTIF(G72:G75, "Failed") &gt; 0, "Failed",IF( COUNTIF(G72:G75, "Pending") &gt; 0, "Pending",IF(COUNTA(G72:G75) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H69" s="89"/>
-      <c r="I69" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J69" s="88" t="str">
-        <f>IF(COUNTIF(J72:J75, "Failed") &gt; 0, "Failed",IF( COUNTIF(J72:J75, "Pending") &gt; 0, "Pending",IF(COUNTA(J72:J75) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K69" s="89"/>
-      <c r="L69" s="90"/>
+      <c r="A69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K69" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M69" s="74"/>
       <c r="N69" s="74"/>
       <c r="O69" s="74"/>
@@ -14980,30 +15073,30 @@
       <c r="Z69" s="74"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="93"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H70" s="93"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K70" s="93"/>
-      <c r="L70" s="89"/>
+      <c r="A70" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B70" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="98"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" s="77"/>
+      <c r="J70" s="101"/>
+      <c r="K70" s="102"/>
+      <c r="L70" s="102"/>
       <c r="M70" s="74"/>
       <c r="N70" s="74"/>
       <c r="O70" s="74"/>
@@ -15020,36 +15113,30 @@
       <c r="Z70" s="74"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="79"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E71" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G71" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H71" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I71" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J71" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L71" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A71" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B71" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" s="98"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="77"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="102"/>
+      <c r="L71" s="102"/>
       <c r="M71" s="74"/>
       <c r="N71" s="74"/>
       <c r="O71" s="74"/>
@@ -15066,30 +15153,30 @@
       <c r="Z71" s="74"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B72" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="95" t="s">
+      <c r="A72" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B72" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E72" s="98"/>
       <c r="F72" s="99"/>
-      <c r="G72" s="95" t="s">
+      <c r="G72" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="98"/>
-      <c r="I72" s="76"/>
-      <c r="J72" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K72" s="101"/>
-      <c r="L72" s="101"/>
+      <c r="H72" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72" s="77"/>
+      <c r="J72" s="101"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102"/>
       <c r="M72" s="74"/>
       <c r="N72" s="74"/>
       <c r="O72" s="74"/>
@@ -15107,29 +15194,29 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B73" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C73" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B73" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E73" s="98"/>
       <c r="F73" s="99"/>
-      <c r="G73" s="95" t="s">
+      <c r="G73" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H73" s="98"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K73" s="101"/>
-      <c r="L73" s="101"/>
+      <c r="H73" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" s="77"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
       <c r="M73" s="74"/>
       <c r="N73" s="74"/>
       <c r="O73" s="74"/>
@@ -15147,29 +15234,29 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B74" s="105" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B74" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="109"/>
+      <c r="F74" s="110"/>
+      <c r="G74" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D74" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E74" s="98"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H74" s="98"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K74" s="101"/>
-      <c r="L74" s="101"/>
+      <c r="I74" s="111"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="112"/>
       <c r="M74" s="74"/>
       <c r="N74" s="74"/>
       <c r="O74" s="74"/>
@@ -15187,29 +15274,29 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B75" s="105" t="s">
-        <v>109</v>
-      </c>
-      <c r="C75" s="105" t="s">
-        <v>110</v>
-      </c>
-      <c r="D75" s="95" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B75" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="98"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="95" t="s">
+      <c r="E75" s="109"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="98"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K75" s="101"/>
-      <c r="L75" s="101"/>
+      <c r="H75" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" s="111"/>
+      <c r="J75" s="101"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="112"/>
       <c r="M75" s="74"/>
       <c r="N75" s="74"/>
       <c r="O75" s="74"/>
@@ -15226,24 +15313,18 @@
       <c r="Z75" s="74"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B76" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C76" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="117"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="108"/>
-      <c r="I76" s="110"/>
-      <c r="J76" s="111"/>
-      <c r="K76" s="112"/>
-      <c r="L76" s="112"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
       <c r="M76" s="74"/>
       <c r="N76" s="74"/>
       <c r="O76" s="74"/>
@@ -15260,24 +15341,22 @@
       <c r="Z76" s="74"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B77" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="105" t="s">
-        <v>111</v>
-      </c>
-      <c r="D77" s="117"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="110"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="112"/>
-      <c r="L77" s="112"/>
+      <c r="A77" s="117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
       <c r="M77" s="74"/>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
@@ -15322,22 +15401,37 @@
       <c r="Z78" s="74"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="B79" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C79" s="82"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="82"/>
-      <c r="I79" s="82"/>
-      <c r="J79" s="82"/>
-      <c r="K79" s="82"/>
-      <c r="L79" s="82"/>
+      <c r="A79" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="89" t="str">
+        <f>IF(COUNTIF(D82:D85, "Failed") &gt; 0, "Failed",IF( COUNTIF(D82:D85, "Pending") &gt; 0, "Pending",IF(COUNTA(D82:D85) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E79" s="90"/>
+      <c r="F79" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="89" t="str">
+        <f>IF(COUNTIF(G82:G85, "Failed") &gt; 0, "Failed",IF( COUNTIF(G82:G85, "Pending") &gt; 0, "Pending",IF(COUNTA(G82:G85) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H79" s="90"/>
+      <c r="I79" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79" s="89" t="str">
+        <f>IF(COUNTIF(J82:J85, "Failed") &gt; 0, "Failed",IF( COUNTIF(J82:J85, "Pending") &gt; 0, "Pending",IF(COUNTA(J82:J85) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K79" s="90"/>
+      <c r="L79" s="91"/>
       <c r="M79" s="74"/>
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
@@ -15354,18 +15448,30 @@
       <c r="Z79" s="74"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="74"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="74"/>
-      <c r="K80" s="74"/>
-      <c r="L80" s="74"/>
+      <c r="A80" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="94"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="94"/>
+      <c r="I80" s="90"/>
+      <c r="J80" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K80" s="94"/>
+      <c r="L80" s="90"/>
       <c r="M80" s="74"/>
       <c r="N80" s="74"/>
       <c r="O80" s="74"/>
@@ -15382,37 +15488,36 @@
       <c r="Z80" s="74"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="118" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="88" t="str">
-        <f>IF(COUNTIF(D84:D87, "Failed") &gt; 0, "Failed",IF( COUNTIF(D84:D87, "Pending") &gt; 0, "Pending",IF(COUNTA(D84:D87) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E81" s="89"/>
-      <c r="F81" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G81" s="88" t="str">
-        <f>IF(COUNTIF(G84:G87, "Failed") &gt; 0, "Failed",IF( COUNTIF(G84:G87, "Pending") &gt; 0, "Pending",IF(COUNTA(G84:G87) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H81" s="89"/>
-      <c r="I81" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J81" s="88" t="str">
-        <f>IF(COUNTIF(J84:J87, "Failed") &gt; 0, "Failed",IF( COUNTIF(J84:J87, "Pending") &gt; 0, "Pending",IF(COUNTA(J84:J87) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K81" s="89"/>
-      <c r="L81" s="90"/>
+      <c r="A81" s="80"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G81" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J81" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L81" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M81" s="74"/>
       <c r="N81" s="74"/>
       <c r="O81" s="74"/>
@@ -15429,30 +15534,30 @@
       <c r="Z81" s="74"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" s="93"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H82" s="93"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K82" s="93"/>
-      <c r="L82" s="89"/>
+      <c r="A82" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B82" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="98"/>
+      <c r="F82" s="99"/>
+      <c r="G82" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82" s="77"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="102"/>
+      <c r="L82" s="102"/>
       <c r="M82" s="74"/>
       <c r="N82" s="74"/>
       <c r="O82" s="74"/>
@@ -15469,36 +15574,30 @@
       <c r="Z82" s="74"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="79"/>
-      <c r="B83" s="79"/>
-      <c r="C83" s="79"/>
-      <c r="D83" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E83" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F83" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G83" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H83" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J83" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K83" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L83" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A83" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B83" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="98"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" s="77"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="102"/>
+      <c r="L83" s="102"/>
       <c r="M83" s="74"/>
       <c r="N83" s="74"/>
       <c r="O83" s="74"/>
@@ -15515,30 +15614,30 @@
       <c r="Z83" s="74"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B84" s="96" t="s">
-        <v>116</v>
-      </c>
-      <c r="C84" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="95" t="s">
+      <c r="A84" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B84" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E84" s="98"/>
       <c r="F84" s="99"/>
-      <c r="G84" s="95" t="s">
+      <c r="G84" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H84" s="98"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K84" s="101"/>
-      <c r="L84" s="101"/>
+      <c r="H84" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I84" s="77"/>
+      <c r="J84" s="101"/>
+      <c r="K84" s="102"/>
+      <c r="L84" s="102"/>
       <c r="M84" s="74"/>
       <c r="N84" s="74"/>
       <c r="O84" s="74"/>
@@ -15556,29 +15655,29 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B85" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B85" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E85" s="98"/>
       <c r="F85" s="99"/>
-      <c r="G85" s="95" t="s">
+      <c r="G85" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H85" s="98"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K85" s="101"/>
-      <c r="L85" s="101"/>
+      <c r="H85" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I85" s="77"/>
+      <c r="J85" s="101"/>
+      <c r="K85" s="102"/>
+      <c r="L85" s="102"/>
       <c r="M85" s="74"/>
       <c r="N85" s="74"/>
       <c r="O85" s="74"/>
@@ -15595,30 +15694,30 @@
       <c r="Z85" s="74"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B86" s="105" t="s">
+      <c r="A86" s="114">
+        <v>5.0</v>
+      </c>
+      <c r="B86" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="109"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="98"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H86" s="98"/>
-      <c r="I86" s="76"/>
-      <c r="J86" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K86" s="101"/>
-      <c r="L86" s="101"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="101"/>
+      <c r="K86" s="112"/>
+      <c r="L86" s="112"/>
       <c r="M86" s="74"/>
       <c r="N86" s="74"/>
       <c r="O86" s="74"/>
@@ -15636,29 +15735,29 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B87" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="95" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B87" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="98"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="95" t="s">
+      <c r="E87" s="109"/>
+      <c r="F87" s="110"/>
+      <c r="G87" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H87" s="98"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K87" s="101"/>
-      <c r="L87" s="101"/>
+      <c r="H87" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I87" s="111"/>
+      <c r="J87" s="101"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
       <c r="M87" s="74"/>
       <c r="N87" s="74"/>
       <c r="O87" s="74"/>
@@ -15676,21 +15775,27 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="114">
-        <v>5.0</v>
-      </c>
-      <c r="B88" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="117"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="108"/>
-      <c r="I88" s="110"/>
-      <c r="J88" s="111"/>
+        <v>7.0</v>
+      </c>
+      <c r="B88" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="109"/>
+      <c r="F88" s="110"/>
+      <c r="G88" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I88" s="111"/>
+      <c r="J88" s="101"/>
       <c r="K88" s="112"/>
       <c r="L88" s="112"/>
       <c r="M88" s="74"/>
@@ -15709,24 +15814,18 @@
       <c r="Z88" s="74"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B89" s="107" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" s="117"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="109"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="108"/>
-      <c r="I89" s="110"/>
-      <c r="J89" s="111"/>
-      <c r="K89" s="112"/>
-      <c r="L89" s="112"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="74"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="74"/>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
       <c r="M89" s="74"/>
       <c r="N89" s="74"/>
       <c r="O89" s="74"/>
@@ -15743,24 +15842,22 @@
       <c r="Z89" s="74"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="114">
-        <v>7.0</v>
-      </c>
-      <c r="B90" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="117"/>
-      <c r="E90" s="108"/>
-      <c r="F90" s="109"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="108"/>
-      <c r="I90" s="110"/>
-      <c r="J90" s="111"/>
-      <c r="K90" s="112"/>
-      <c r="L90" s="112"/>
+      <c r="A90" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="83"/>
+      <c r="H90" s="83"/>
+      <c r="I90" s="83"/>
+      <c r="J90" s="83"/>
+      <c r="K90" s="83"/>
+      <c r="L90" s="83"/>
       <c r="M90" s="74"/>
       <c r="N90" s="74"/>
       <c r="O90" s="74"/>
@@ -15805,22 +15902,37 @@
       <c r="Z91" s="74"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82"/>
-      <c r="I92" s="82"/>
-      <c r="J92" s="82"/>
-      <c r="K92" s="82"/>
-      <c r="L92" s="82"/>
+      <c r="A92" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="89" t="str">
+        <f>IF(COUNTIF(D95:D98, "Failed") &gt; 0, "Failed",IF( COUNTIF(D95:D98, "Pending") &gt; 0, "Pending",IF(COUNTA(D95:D98) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E92" s="90"/>
+      <c r="F92" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="89" t="str">
+        <f>IF(COUNTIF(G95:G98, "Failed") &gt; 0, "Failed",IF( COUNTIF(G95:G98, "Pending") &gt; 0, "Pending",IF(COUNTA(G95:G98) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H92" s="90"/>
+      <c r="I92" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J92" s="89" t="str">
+        <f>IF(COUNTIF(J95:J98, "Failed") &gt; 0, "Failed",IF( COUNTIF(J95:J98, "Pending") &gt; 0, "Pending",IF(COUNTA(J95:J98) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K92" s="90"/>
+      <c r="L92" s="91"/>
       <c r="M92" s="74"/>
       <c r="N92" s="74"/>
       <c r="O92" s="74"/>
@@ -15837,18 +15949,30 @@
       <c r="Z92" s="74"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="74"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="74"/>
-      <c r="L93" s="74"/>
+      <c r="A93" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E93" s="94"/>
+      <c r="F93" s="90"/>
+      <c r="G93" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="94"/>
+      <c r="I93" s="90"/>
+      <c r="J93" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="94"/>
+      <c r="L93" s="90"/>
       <c r="M93" s="74"/>
       <c r="N93" s="74"/>
       <c r="O93" s="74"/>
@@ -15865,37 +15989,36 @@
       <c r="Z93" s="74"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="118" t="s">
-        <v>123</v>
-      </c>
-      <c r="B94" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D94" s="88" t="str">
-        <f>IF(COUNTIF(D97:D100, "Failed") &gt; 0, "Failed",IF( COUNTIF(D97:D100, "Pending") &gt; 0, "Pending",IF(COUNTA(D97:D100) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E94" s="89"/>
-      <c r="F94" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G94" s="88" t="str">
-        <f>IF(COUNTIF(G97:G100, "Failed") &gt; 0, "Failed",IF( COUNTIF(G97:G100, "Pending") &gt; 0, "Pending",IF(COUNTA(G97:G100) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H94" s="89"/>
-      <c r="I94" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J94" s="88" t="str">
-        <f>IF(COUNTIF(J97:J100, "Failed") &gt; 0, "Failed",IF( COUNTIF(J97:J100, "Pending") &gt; 0, "Pending",IF(COUNTA(J97:J100) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K94" s="89"/>
-      <c r="L94" s="90"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I94" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J94" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K94" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L94" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M94" s="74"/>
       <c r="N94" s="74"/>
       <c r="O94" s="74"/>
@@ -15912,30 +16035,30 @@
       <c r="Z94" s="74"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E95" s="93"/>
-      <c r="F95" s="89"/>
-      <c r="G95" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H95" s="93"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K95" s="93"/>
-      <c r="L95" s="89"/>
+      <c r="A95" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B95" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="98"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I95" s="77"/>
+      <c r="J95" s="101"/>
+      <c r="K95" s="102"/>
+      <c r="L95" s="102"/>
       <c r="M95" s="74"/>
       <c r="N95" s="74"/>
       <c r="O95" s="74"/>
@@ -15952,36 +16075,30 @@
       <c r="Z95" s="74"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="79"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E96" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G96" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H96" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I96" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J96" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K96" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L96" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A96" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B96" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D96" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="98"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I96" s="77"/>
+      <c r="J96" s="101"/>
+      <c r="K96" s="102"/>
+      <c r="L96" s="102"/>
       <c r="M96" s="74"/>
       <c r="N96" s="74"/>
       <c r="O96" s="74"/>
@@ -15998,30 +16115,30 @@
       <c r="Z96" s="74"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B97" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D97" s="95" t="s">
+      <c r="A97" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B97" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E97" s="98"/>
       <c r="F97" s="99"/>
-      <c r="G97" s="95" t="s">
+      <c r="G97" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H97" s="98"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K97" s="101"/>
-      <c r="L97" s="101"/>
+      <c r="H97" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I97" s="77"/>
+      <c r="J97" s="101"/>
+      <c r="K97" s="102"/>
+      <c r="L97" s="102"/>
       <c r="M97" s="74"/>
       <c r="N97" s="74"/>
       <c r="O97" s="74"/>
@@ -16039,29 +16156,29 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B98" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B98" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E98" s="98"/>
       <c r="F98" s="99"/>
-      <c r="G98" s="95" t="s">
+      <c r="G98" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H98" s="98"/>
-      <c r="I98" s="76"/>
-      <c r="J98" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K98" s="101"/>
-      <c r="L98" s="101"/>
+      <c r="H98" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" s="77"/>
+      <c r="J98" s="101"/>
+      <c r="K98" s="102"/>
+      <c r="L98" s="102"/>
       <c r="M98" s="74"/>
       <c r="N98" s="74"/>
       <c r="O98" s="74"/>
@@ -16078,30 +16195,18 @@
       <c r="Z98" s="74"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B99" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D99" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="98"/>
-      <c r="F99" s="99"/>
-      <c r="G99" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H99" s="98"/>
-      <c r="I99" s="76"/>
-      <c r="J99" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K99" s="101"/>
-      <c r="L99" s="101"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="74"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="74"/>
       <c r="M99" s="74"/>
       <c r="N99" s="74"/>
       <c r="O99" s="74"/>
@@ -16118,30 +16223,37 @@
       <c r="Z99" s="74"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B100" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="98"/>
-      <c r="F100" s="99"/>
-      <c r="G100" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H100" s="98"/>
-      <c r="I100" s="76"/>
-      <c r="J100" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K100" s="101"/>
-      <c r="L100" s="101"/>
+      <c r="A100" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="89" t="str">
+        <f>IF(COUNTIF(D103:D106, "Failed") &gt; 0, "Failed",IF( COUNTIF(D103:D106, "Pending") &gt; 0, "Pending",IF(COUNTA(D103:D106) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E100" s="90"/>
+      <c r="F100" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100" s="89" t="str">
+        <f>IF(COUNTIF(G103:G106, "Failed") &gt; 0, "Failed",IF( COUNTIF(G103:G106, "Pending") &gt; 0, "Pending",IF(COUNTA(G103:G106) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H100" s="90"/>
+      <c r="I100" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J100" s="89" t="str">
+        <f>IF(COUNTIF(J103:J106, "Failed") &gt; 0, "Failed",IF( COUNTIF(J103:J106, "Pending") &gt; 0, "Pending",IF(COUNTA(J103:J106) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K100" s="90"/>
+      <c r="L100" s="91"/>
       <c r="M100" s="74"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
@@ -16158,18 +16270,30 @@
       <c r="Z100" s="74"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
+      <c r="A101" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="94"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="94"/>
+      <c r="I101" s="90"/>
+      <c r="J101" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="94"/>
+      <c r="L101" s="90"/>
       <c r="M101" s="74"/>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
@@ -16186,37 +16310,36 @@
       <c r="Z101" s="74"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="C102" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" s="88" t="str">
-        <f>IF(COUNTIF(D105:D108, "Failed") &gt; 0, "Failed",IF( COUNTIF(D105:D108, "Pending") &gt; 0, "Pending",IF(COUNTA(D105:D108) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E102" s="89"/>
-      <c r="F102" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G102" s="88" t="str">
-        <f>IF(COUNTIF(G105:G108, "Failed") &gt; 0, "Failed",IF( COUNTIF(G105:G108, "Pending") &gt; 0, "Pending",IF(COUNTA(G105:G108) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H102" s="89"/>
-      <c r="I102" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J102" s="88" t="str">
-        <f>IF(COUNTIF(J105:J108, "Failed") &gt; 0, "Failed",IF( COUNTIF(J105:J108, "Pending") &gt; 0, "Pending",IF(COUNTA(J105:J108) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K102" s="89"/>
-      <c r="L102" s="90"/>
+      <c r="A102" s="80"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I102" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J102" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K102" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L102" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M102" s="74"/>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
@@ -16233,30 +16356,30 @@
       <c r="Z102" s="74"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D103" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E103" s="93"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H103" s="93"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K103" s="93"/>
-      <c r="L103" s="89"/>
+      <c r="A103" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B103" s="97" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="98"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I103" s="77"/>
+      <c r="J103" s="101"/>
+      <c r="K103" s="102"/>
+      <c r="L103" s="102"/>
       <c r="M103" s="74"/>
       <c r="N103" s="74"/>
       <c r="O103" s="74"/>
@@ -16273,36 +16396,30 @@
       <c r="Z103" s="74"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="79"/>
-      <c r="B104" s="79"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E104" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G104" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H104" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I104" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J104" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K104" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L104" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A104" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B104" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="98"/>
+      <c r="F104" s="99"/>
+      <c r="G104" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I104" s="77"/>
+      <c r="J104" s="101"/>
+      <c r="K104" s="102"/>
+      <c r="L104" s="102"/>
       <c r="M104" s="74"/>
       <c r="N104" s="74"/>
       <c r="O104" s="74"/>
@@ -16319,30 +16436,30 @@
       <c r="Z104" s="74"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B105" s="96" t="s">
-        <v>130</v>
-      </c>
-      <c r="C105" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D105" s="95" t="s">
+      <c r="A105" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B105" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E105" s="98"/>
       <c r="F105" s="99"/>
-      <c r="G105" s="95" t="s">
+      <c r="G105" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H105" s="98"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K105" s="101"/>
-      <c r="L105" s="101"/>
+      <c r="H105" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I105" s="77"/>
+      <c r="J105" s="101"/>
+      <c r="K105" s="102"/>
+      <c r="L105" s="102"/>
       <c r="M105" s="74"/>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
@@ -16360,29 +16477,29 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B106" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D106" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B106" s="106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D106" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E106" s="98"/>
       <c r="F106" s="99"/>
-      <c r="G106" s="95" t="s">
+      <c r="G106" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H106" s="98"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K106" s="101"/>
-      <c r="L106" s="101"/>
+      <c r="H106" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I106" s="77"/>
+      <c r="J106" s="101"/>
+      <c r="K106" s="102"/>
+      <c r="L106" s="102"/>
       <c r="M106" s="74"/>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
@@ -16399,30 +16516,18 @@
       <c r="Z106" s="74"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B107" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D107" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="98"/>
-      <c r="F107" s="99"/>
-      <c r="G107" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H107" s="98"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K107" s="101"/>
-      <c r="L107" s="101"/>
+      <c r="A107" s="74"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="74"/>
       <c r="M107" s="74"/>
       <c r="N107" s="74"/>
       <c r="O107" s="74"/>
@@ -16439,30 +16544,37 @@
       <c r="Z107" s="74"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B108" s="105" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="D108" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E108" s="98"/>
-      <c r="F108" s="99"/>
-      <c r="G108" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H108" s="98"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K108" s="101"/>
-      <c r="L108" s="101"/>
+      <c r="A108" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="89" t="str">
+        <f>IF(COUNTIF(D111:D114, "Failed") &gt; 0, "Failed",IF( COUNTIF(D111:D114, "Pending") &gt; 0, "Pending",IF(COUNTA(D111:D114) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E108" s="90"/>
+      <c r="F108" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" s="89" t="str">
+        <f>IF(COUNTIF(G111:G114, "Failed") &gt; 0, "Failed",IF( COUNTIF(G111:G114, "Pending") &gt; 0, "Pending",IF(COUNTA(G111:G114) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H108" s="90"/>
+      <c r="I108" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J108" s="89" t="str">
+        <f>IF(COUNTIF(J111:J114, "Failed") &gt; 0, "Failed",IF( COUNTIF(J111:J114, "Pending") &gt; 0, "Pending",IF(COUNTA(J111:J114) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K108" s="90"/>
+      <c r="L108" s="91"/>
       <c r="M108" s="74"/>
       <c r="N108" s="74"/>
       <c r="O108" s="74"/>
@@ -16479,18 +16591,30 @@
       <c r="Z108" s="74"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="74"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
+      <c r="A109" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C109" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" s="94"/>
+      <c r="F109" s="90"/>
+      <c r="G109" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H109" s="94"/>
+      <c r="I109" s="90"/>
+      <c r="J109" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K109" s="94"/>
+      <c r="L109" s="90"/>
       <c r="M109" s="74"/>
       <c r="N109" s="74"/>
       <c r="O109" s="74"/>
@@ -16507,37 +16631,36 @@
       <c r="Z109" s="74"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="118" t="s">
-        <v>133</v>
-      </c>
-      <c r="B110" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="C110" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="88" t="str">
-        <f>IF(COUNTIF(D113:D116, "Failed") &gt; 0, "Failed",IF( COUNTIF(D113:D116, "Pending") &gt; 0, "Pending",IF(COUNTA(D113:D116) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E110" s="89"/>
-      <c r="F110" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G110" s="88" t="str">
-        <f>IF(COUNTIF(G113:G116, "Failed") &gt; 0, "Failed",IF( COUNTIF(G113:G116, "Pending") &gt; 0, "Pending",IF(COUNTA(G113:G116) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H110" s="89"/>
-      <c r="I110" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J110" s="88" t="str">
-        <f>IF(COUNTIF(J113:J116, "Failed") &gt; 0, "Failed",IF( COUNTIF(J113:J116, "Pending") &gt; 0, "Pending",IF(COUNTA(J113:J116) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K110" s="89"/>
-      <c r="L110" s="90"/>
+      <c r="A110" s="80"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G110" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H110" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I110" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J110" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K110" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L110" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M110" s="74"/>
       <c r="N110" s="74"/>
       <c r="O110" s="74"/>
@@ -16554,30 +16677,30 @@
       <c r="Z110" s="74"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C111" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D111" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E111" s="93"/>
-      <c r="F111" s="89"/>
-      <c r="G111" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H111" s="93"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K111" s="93"/>
-      <c r="L111" s="89"/>
+      <c r="A111" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B111" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E111" s="98"/>
+      <c r="F111" s="99"/>
+      <c r="G111" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I111" s="77"/>
+      <c r="J111" s="101"/>
+      <c r="K111" s="102"/>
+      <c r="L111" s="102"/>
       <c r="M111" s="74"/>
       <c r="N111" s="74"/>
       <c r="O111" s="74"/>
@@ -16594,36 +16717,30 @@
       <c r="Z111" s="74"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="79"/>
-      <c r="B112" s="79"/>
-      <c r="C112" s="79"/>
-      <c r="D112" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E112" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F112" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G112" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H112" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I112" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J112" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K112" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L112" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A112" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B112" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D112" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="98"/>
+      <c r="F112" s="99"/>
+      <c r="G112" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112" s="77"/>
+      <c r="J112" s="101"/>
+      <c r="K112" s="102"/>
+      <c r="L112" s="102"/>
       <c r="M112" s="74"/>
       <c r="N112" s="74"/>
       <c r="O112" s="74"/>
@@ -16640,30 +16757,30 @@
       <c r="Z112" s="74"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B113" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D113" s="95" t="s">
+      <c r="A113" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B113" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E113" s="98"/>
       <c r="F113" s="99"/>
-      <c r="G113" s="95" t="s">
+      <c r="G113" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H113" s="98"/>
-      <c r="I113" s="76"/>
-      <c r="J113" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K113" s="101"/>
-      <c r="L113" s="101"/>
+      <c r="H113" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I113" s="77"/>
+      <c r="J113" s="101"/>
+      <c r="K113" s="102"/>
+      <c r="L113" s="102"/>
       <c r="M113" s="74"/>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
@@ -16681,29 +16798,29 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B114" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C114" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D114" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B114" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="D114" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E114" s="98"/>
       <c r="F114" s="99"/>
-      <c r="G114" s="95" t="s">
+      <c r="G114" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H114" s="98"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K114" s="101"/>
-      <c r="L114" s="101"/>
+      <c r="H114" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I114" s="77"/>
+      <c r="J114" s="101"/>
+      <c r="K114" s="102"/>
+      <c r="L114" s="102"/>
       <c r="M114" s="74"/>
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
@@ -16720,30 +16837,18 @@
       <c r="Z114" s="74"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B115" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E115" s="98"/>
-      <c r="F115" s="99"/>
-      <c r="G115" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H115" s="98"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K115" s="101"/>
-      <c r="L115" s="101"/>
+      <c r="A115" s="74"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
       <c r="M115" s="74"/>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
@@ -16760,30 +16865,22 @@
       <c r="Z115" s="74"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B116" s="105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="105" t="s">
-        <v>137</v>
-      </c>
-      <c r="D116" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E116" s="98"/>
-      <c r="F116" s="99"/>
-      <c r="G116" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H116" s="98"/>
-      <c r="I116" s="76"/>
-      <c r="J116" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K116" s="101"/>
-      <c r="L116" s="101"/>
+      <c r="A116" s="117" t="s">
+        <v>141</v>
+      </c>
+      <c r="B116" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="83"/>
+      <c r="I116" s="83"/>
+      <c r="J116" s="83"/>
+      <c r="K116" s="83"/>
+      <c r="L116" s="83"/>
       <c r="M116" s="74"/>
       <c r="N116" s="74"/>
       <c r="O116" s="74"/>
@@ -16828,22 +16925,37 @@
       <c r="Z117" s="74"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="119" t="s">
-        <v>138</v>
-      </c>
-      <c r="B118" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="C118" s="82"/>
-      <c r="D118" s="82"/>
-      <c r="E118" s="82"/>
-      <c r="F118" s="82"/>
-      <c r="G118" s="82"/>
-      <c r="H118" s="82"/>
-      <c r="I118" s="82"/>
-      <c r="J118" s="82"/>
-      <c r="K118" s="82"/>
-      <c r="L118" s="82"/>
+      <c r="A118" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="89" t="str">
+        <f>IF(COUNTIF(D121:D124, "Failed") &gt; 0, "Failed",IF( COUNTIF(D121:D124, "Pending") &gt; 0, "Pending",IF(COUNTA(D121:D124) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E118" s="90"/>
+      <c r="F118" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118" s="89" t="str">
+        <f>IF(COUNTIF(G121:G124, "Failed") &gt; 0, "Failed",IF( COUNTIF(G121:G124, "Pending") &gt; 0, "Pending",IF(COUNTA(G121:G124) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H118" s="90"/>
+      <c r="I118" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J118" s="89" t="str">
+        <f>IF(COUNTIF(J121:J124, "Failed") &gt; 0, "Failed",IF( COUNTIF(J121:J124, "Pending") &gt; 0, "Pending",IF(COUNTA(J121:J124) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K118" s="90"/>
+      <c r="L118" s="91"/>
       <c r="M118" s="74"/>
       <c r="N118" s="74"/>
       <c r="O118" s="74"/>
@@ -16860,18 +16972,30 @@
       <c r="Z118" s="74"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="74"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="74"/>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
-      <c r="G119" s="74"/>
-      <c r="H119" s="74"/>
-      <c r="I119" s="74"/>
-      <c r="J119" s="74"/>
-      <c r="K119" s="74"/>
-      <c r="L119" s="74"/>
+      <c r="A119" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="94"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H119" s="94"/>
+      <c r="I119" s="90"/>
+      <c r="J119" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="94"/>
+      <c r="L119" s="90"/>
       <c r="M119" s="74"/>
       <c r="N119" s="74"/>
       <c r="O119" s="74"/>
@@ -16888,37 +17012,36 @@
       <c r="Z119" s="74"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="B120" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="C120" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D120" s="88" t="str">
-        <f>IF(COUNTIF(D123:D126, "Failed") &gt; 0, "Failed",IF( COUNTIF(D123:D126, "Pending") &gt; 0, "Pending",IF(COUNTA(D123:D126) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E120" s="89"/>
-      <c r="F120" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G120" s="88" t="str">
-        <f>IF(COUNTIF(G123:G126, "Failed") &gt; 0, "Failed",IF( COUNTIF(G123:G126, "Pending") &gt; 0, "Pending",IF(COUNTA(G123:G126) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H120" s="89"/>
-      <c r="I120" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J120" s="88" t="str">
-        <f>IF(COUNTIF(J123:J126, "Failed") &gt; 0, "Failed",IF( COUNTIF(J123:J126, "Pending") &gt; 0, "Pending",IF(COUNTA(J123:J126) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K120" s="89"/>
-      <c r="L120" s="90"/>
+      <c r="A120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E120" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G120" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H120" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I120" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J120" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K120" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L120" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M120" s="74"/>
       <c r="N120" s="74"/>
       <c r="O120" s="74"/>
@@ -16935,30 +17058,30 @@
       <c r="Z120" s="74"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C121" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D121" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E121" s="93"/>
-      <c r="F121" s="89"/>
-      <c r="G121" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H121" s="93"/>
-      <c r="I121" s="89"/>
-      <c r="J121" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K121" s="93"/>
-      <c r="L121" s="89"/>
+      <c r="A121" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B121" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D121" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E121" s="98"/>
+      <c r="F121" s="99"/>
+      <c r="G121" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I121" s="77"/>
+      <c r="J121" s="101"/>
+      <c r="K121" s="102"/>
+      <c r="L121" s="102"/>
       <c r="M121" s="74"/>
       <c r="N121" s="74"/>
       <c r="O121" s="74"/>
@@ -16975,36 +17098,30 @@
       <c r="Z121" s="74"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="79"/>
-      <c r="B122" s="79"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E122" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G122" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H122" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I122" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J122" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K122" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L122" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A122" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B122" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="98"/>
+      <c r="F122" s="99"/>
+      <c r="G122" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H122" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122" s="77"/>
+      <c r="J122" s="101"/>
+      <c r="K122" s="102"/>
+      <c r="L122" s="102"/>
       <c r="M122" s="74"/>
       <c r="N122" s="74"/>
       <c r="O122" s="74"/>
@@ -17021,30 +17138,30 @@
       <c r="Z122" s="74"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B123" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="C123" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D123" s="95" t="s">
+      <c r="A123" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B123" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E123" s="98"/>
       <c r="F123" s="99"/>
-      <c r="G123" s="95" t="s">
+      <c r="G123" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H123" s="98"/>
-      <c r="I123" s="76"/>
-      <c r="J123" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K123" s="101"/>
-      <c r="L123" s="101"/>
+      <c r="H123" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123" s="77"/>
+      <c r="J123" s="101"/>
+      <c r="K123" s="102"/>
+      <c r="L123" s="102"/>
       <c r="M123" s="74"/>
       <c r="N123" s="74"/>
       <c r="O123" s="74"/>
@@ -17062,29 +17179,29 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B124" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C124" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="D124" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B124" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E124" s="98"/>
       <c r="F124" s="99"/>
-      <c r="G124" s="95" t="s">
+      <c r="G124" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H124" s="98"/>
-      <c r="I124" s="76"/>
-      <c r="J124" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K124" s="101"/>
-      <c r="L124" s="101"/>
+      <c r="H124" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I124" s="77"/>
+      <c r="J124" s="101"/>
+      <c r="K124" s="102"/>
+      <c r="L124" s="102"/>
       <c r="M124" s="74"/>
       <c r="N124" s="74"/>
       <c r="O124" s="74"/>
@@ -17102,29 +17219,29 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B125" s="105" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B125" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" s="109"/>
+      <c r="F125" s="110"/>
+      <c r="G125" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H125" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C125" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D125" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" s="98"/>
-      <c r="F125" s="99"/>
-      <c r="G125" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H125" s="98"/>
-      <c r="I125" s="76"/>
-      <c r="J125" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K125" s="101"/>
-      <c r="L125" s="101"/>
+      <c r="I125" s="111"/>
+      <c r="J125" s="118"/>
+      <c r="K125" s="112"/>
+      <c r="L125" s="112"/>
       <c r="M125" s="74"/>
       <c r="N125" s="74"/>
       <c r="O125" s="74"/>
@@ -17141,30 +17258,18 @@
       <c r="Z125" s="74"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B126" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="C126" s="105" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E126" s="98"/>
-      <c r="F126" s="99"/>
-      <c r="G126" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H126" s="98"/>
-      <c r="I126" s="76"/>
-      <c r="J126" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K126" s="101"/>
-      <c r="L126" s="101"/>
+      <c r="A126" s="74"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="74"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="74"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="74"/>
+      <c r="I126" s="74"/>
+      <c r="J126" s="74"/>
+      <c r="K126" s="74"/>
+      <c r="L126" s="74"/>
       <c r="M126" s="74"/>
       <c r="N126" s="74"/>
       <c r="O126" s="74"/>
@@ -17181,28 +17286,22 @@
       <c r="Z126" s="74"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B127" s="107" t="s">
-        <v>143</v>
-      </c>
-      <c r="C127" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E127" s="108"/>
-      <c r="F127" s="109"/>
-      <c r="G127" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H127" s="108"/>
-      <c r="I127" s="110"/>
-      <c r="J127" s="111"/>
-      <c r="K127" s="112"/>
-      <c r="L127" s="112"/>
+      <c r="A127" s="117" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+      <c r="J127" s="83"/>
+      <c r="K127" s="83"/>
+      <c r="L127" s="83"/>
       <c r="M127" s="74"/>
       <c r="N127" s="74"/>
       <c r="O127" s="74"/>
@@ -17247,22 +17346,18 @@
       <c r="Z128" s="74"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="119" t="s">
-        <v>144</v>
-      </c>
-      <c r="B129" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="82"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="82"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="82"/>
-      <c r="J129" s="82"/>
-      <c r="K129" s="82"/>
-      <c r="L129" s="82"/>
+      <c r="A129" s="74"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="74"/>
+      <c r="H129" s="74"/>
+      <c r="I129" s="74"/>
+      <c r="J129" s="74"/>
+      <c r="K129" s="74"/>
+      <c r="L129" s="74"/>
       <c r="M129" s="74"/>
       <c r="N129" s="74"/>
       <c r="O129" s="74"/>
@@ -17279,18 +17374,37 @@
       <c r="Z129" s="74"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="74"/>
-      <c r="B130" s="74"/>
-      <c r="C130" s="74"/>
-      <c r="D130" s="74"/>
-      <c r="E130" s="74"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="74"/>
-      <c r="H130" s="74"/>
-      <c r="I130" s="74"/>
-      <c r="J130" s="74"/>
-      <c r="K130" s="74"/>
-      <c r="L130" s="74"/>
+      <c r="A130" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" s="87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C130" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="89" t="str">
+        <f>IF(COUNTIF(D133:D136, "Failed") &gt; 0, "Failed",IF( COUNTIF(D133:D136, "Pending") &gt; 0, "Pending",IF(COUNTA(D133:D136) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E130" s="90"/>
+      <c r="F130" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G130" s="89" t="str">
+        <f>IF(COUNTIF(G133:G136, "Failed") &gt; 0, "Failed",IF( COUNTIF(G133:G136, "Pending") &gt; 0, "Pending",IF(COUNTA(G133:G136) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H130" s="90"/>
+      <c r="I130" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J130" s="89" t="str">
+        <f>IF(COUNTIF(J133:J136, "Failed") &gt; 0, "Failed",IF( COUNTIF(J133:J136, "Pending") &gt; 0, "Pending",IF(COUNTA(J133:J136) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K130" s="90"/>
+      <c r="L130" s="91"/>
       <c r="M130" s="74"/>
       <c r="N130" s="74"/>
       <c r="O130" s="74"/>
@@ -17307,18 +17421,30 @@
       <c r="Z130" s="74"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="74"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="74"/>
-      <c r="D131" s="74"/>
-      <c r="E131" s="74"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="74"/>
-      <c r="I131" s="74"/>
-      <c r="J131" s="74"/>
-      <c r="K131" s="74"/>
-      <c r="L131" s="74"/>
+      <c r="A131" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="94"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H131" s="94"/>
+      <c r="I131" s="90"/>
+      <c r="J131" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" s="94"/>
+      <c r="L131" s="90"/>
       <c r="M131" s="74"/>
       <c r="N131" s="74"/>
       <c r="O131" s="74"/>
@@ -17335,37 +17461,36 @@
       <c r="Z131" s="74"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C132" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D132" s="88" t="str">
-        <f>IF(COUNTIF(D135:D138, "Failed") &gt; 0, "Failed",IF( COUNTIF(D135:D138, "Pending") &gt; 0, "Pending",IF(COUNTA(D135:D138) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E132" s="89"/>
-      <c r="F132" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G132" s="88" t="str">
-        <f>IF(COUNTIF(G135:G138, "Failed") &gt; 0, "Failed",IF( COUNTIF(G135:G138, "Pending") &gt; 0, "Pending",IF(COUNTA(G135:G138) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H132" s="89"/>
-      <c r="I132" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J132" s="88" t="str">
-        <f>IF(COUNTIF(J135:J138, "Failed") &gt; 0, "Failed",IF( COUNTIF(J135:J138, "Pending") &gt; 0, "Pending",IF(COUNTA(J135:J138) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K132" s="89"/>
-      <c r="L132" s="90"/>
+      <c r="A132" s="80"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E132" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F132" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G132" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H132" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I132" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J132" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K132" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L132" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M132" s="74"/>
       <c r="N132" s="74"/>
       <c r="O132" s="74"/>
@@ -17382,30 +17507,30 @@
       <c r="Z132" s="74"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C133" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D133" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" s="93"/>
-      <c r="F133" s="89"/>
-      <c r="G133" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H133" s="93"/>
-      <c r="I133" s="89"/>
-      <c r="J133" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K133" s="93"/>
-      <c r="L133" s="89"/>
+      <c r="A133" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B133" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="C133" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E133" s="98"/>
+      <c r="F133" s="99"/>
+      <c r="G133" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H133" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I133" s="77"/>
+      <c r="J133" s="101"/>
+      <c r="K133" s="102"/>
+      <c r="L133" s="102"/>
       <c r="M133" s="74"/>
       <c r="N133" s="74"/>
       <c r="O133" s="74"/>
@@ -17422,36 +17547,30 @@
       <c r="Z133" s="74"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="79"/>
-      <c r="B134" s="79"/>
-      <c r="C134" s="79"/>
-      <c r="D134" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E134" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F134" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G134" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H134" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I134" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J134" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K134" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L134" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A134" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B134" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="98"/>
+      <c r="F134" s="99"/>
+      <c r="G134" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H134" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I134" s="77"/>
+      <c r="J134" s="101"/>
+      <c r="K134" s="102"/>
+      <c r="L134" s="102"/>
       <c r="M134" s="74"/>
       <c r="N134" s="74"/>
       <c r="O134" s="74"/>
@@ -17468,30 +17587,30 @@
       <c r="Z134" s="74"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B135" s="120" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D135" s="95" t="s">
+      <c r="A135" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B135" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D135" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E135" s="98"/>
       <c r="F135" s="99"/>
-      <c r="G135" s="95" t="s">
+      <c r="G135" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H135" s="98"/>
-      <c r="I135" s="76"/>
-      <c r="J135" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K135" s="101"/>
-      <c r="L135" s="101"/>
+      <c r="H135" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I135" s="77"/>
+      <c r="J135" s="101"/>
+      <c r="K135" s="102"/>
+      <c r="L135" s="102"/>
       <c r="M135" s="74"/>
       <c r="N135" s="74"/>
       <c r="O135" s="74"/>
@@ -17509,29 +17628,29 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B136" s="96" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D136" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B136" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D136" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E136" s="98"/>
       <c r="F136" s="99"/>
-      <c r="G136" s="95" t="s">
+      <c r="G136" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H136" s="98"/>
-      <c r="I136" s="76"/>
-      <c r="J136" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K136" s="101"/>
-      <c r="L136" s="101"/>
+      <c r="H136" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I136" s="77"/>
+      <c r="J136" s="101"/>
+      <c r="K136" s="102"/>
+      <c r="L136" s="102"/>
       <c r="M136" s="74"/>
       <c r="N136" s="74"/>
       <c r="O136" s="74"/>
@@ -17549,29 +17668,29 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B137" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D137" s="95" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B137" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D137" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E137" s="98"/>
-      <c r="F137" s="99"/>
-      <c r="G137" s="95" t="s">
+      <c r="E137" s="109"/>
+      <c r="F137" s="110"/>
+      <c r="G137" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H137" s="98"/>
-      <c r="I137" s="76"/>
-      <c r="J137" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K137" s="101"/>
-      <c r="L137" s="101"/>
+      <c r="H137" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I137" s="111"/>
+      <c r="J137" s="101"/>
+      <c r="K137" s="112"/>
+      <c r="L137" s="112"/>
       <c r="M137" s="74"/>
       <c r="N137" s="74"/>
       <c r="O137" s="74"/>
@@ -17589,29 +17708,29 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B138" s="105" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B138" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D138" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E138" s="109"/>
+      <c r="F138" s="110"/>
+      <c r="G138" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C138" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D138" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E138" s="98"/>
-      <c r="F138" s="99"/>
-      <c r="G138" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H138" s="98"/>
-      <c r="I138" s="76"/>
-      <c r="J138" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K138" s="101"/>
-      <c r="L138" s="101"/>
+      <c r="I138" s="111"/>
+      <c r="J138" s="101"/>
+      <c r="K138" s="112"/>
+      <c r="L138" s="112"/>
       <c r="M138" s="74"/>
       <c r="N138" s="74"/>
       <c r="O138" s="74"/>
@@ -17629,25 +17748,27 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B139" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C139" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D139" s="106" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="B139" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D139" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E139" s="108"/>
-      <c r="F139" s="109"/>
-      <c r="G139" s="106" t="s">
+      <c r="E139" s="109"/>
+      <c r="F139" s="110"/>
+      <c r="G139" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H139" s="108"/>
-      <c r="I139" s="110"/>
-      <c r="J139" s="111"/>
+      <c r="H139" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I139" s="111"/>
+      <c r="J139" s="101"/>
       <c r="K139" s="112"/>
       <c r="L139" s="112"/>
       <c r="M139" s="74"/>
@@ -17666,28 +17787,18 @@
       <c r="Z139" s="74"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B140" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C140" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D140" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="108"/>
-      <c r="F140" s="109"/>
-      <c r="G140" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H140" s="108"/>
-      <c r="I140" s="110"/>
-      <c r="J140" s="111"/>
-      <c r="K140" s="112"/>
-      <c r="L140" s="112"/>
+      <c r="A140" s="74"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="74"/>
+      <c r="G140" s="74"/>
+      <c r="H140" s="74"/>
+      <c r="I140" s="74"/>
+      <c r="J140" s="74"/>
+      <c r="K140" s="74"/>
+      <c r="L140" s="74"/>
       <c r="M140" s="74"/>
       <c r="N140" s="74"/>
       <c r="O140" s="74"/>
@@ -17704,28 +17815,37 @@
       <c r="Z140" s="74"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="113">
-        <v>7.0</v>
-      </c>
-      <c r="B141" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="D141" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E141" s="108"/>
-      <c r="F141" s="109"/>
-      <c r="G141" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H141" s="108"/>
-      <c r="I141" s="110"/>
-      <c r="J141" s="111"/>
-      <c r="K141" s="112"/>
-      <c r="L141" s="112"/>
+      <c r="A141" s="116" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D141" s="89" t="str">
+        <f>IF(COUNTIF(D144:D147, "Failed") &gt; 0, "Failed",IF( COUNTIF(D144:D147, "Pending") &gt; 0, "Pending",IF(COUNTA(D144:D147) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="E141" s="90"/>
+      <c r="F141" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="G141" s="89" t="str">
+        <f>IF(COUNTIF(G144:G147, "Failed") &gt; 0, "Failed",IF( COUNTIF(G144:G147, "Pending") &gt; 0, "Pending",IF(COUNTA(G144:G147) = 0, "", "Success")))</f>
+        <v>Success</v>
+      </c>
+      <c r="H141" s="90"/>
+      <c r="I141" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="J141" s="89" t="str">
+        <f>IF(COUNTIF(J144:J147, "Failed") &gt; 0, "Failed",IF( COUNTIF(J144:J147, "Pending") &gt; 0, "Pending",IF(COUNTA(J144:J147) = 0, "", "Success")))</f>
+        <v/>
+      </c>
+      <c r="K141" s="90"/>
+      <c r="L141" s="91"/>
       <c r="M141" s="74"/>
       <c r="N141" s="74"/>
       <c r="O141" s="74"/>
@@ -17742,18 +17862,30 @@
       <c r="Z141" s="74"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="74"/>
-      <c r="B142" s="74"/>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
-      <c r="F142" s="74"/>
-      <c r="G142" s="74"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
-      <c r="J142" s="74"/>
-      <c r="K142" s="74"/>
-      <c r="L142" s="74"/>
+      <c r="A142" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C142" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="E142" s="94"/>
+      <c r="F142" s="90"/>
+      <c r="G142" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="H142" s="94"/>
+      <c r="I142" s="90"/>
+      <c r="J142" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" s="94"/>
+      <c r="L142" s="90"/>
       <c r="M142" s="74"/>
       <c r="N142" s="74"/>
       <c r="O142" s="74"/>
@@ -17770,37 +17902,36 @@
       <c r="Z142" s="74"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="118" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="C143" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D143" s="88" t="str">
-        <f>IF(COUNTIF(D146:D149, "Failed") &gt; 0, "Failed",IF( COUNTIF(D146:D149, "Pending") &gt; 0, "Pending",IF(COUNTA(D146:D149) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="E143" s="89"/>
-      <c r="F143" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="G143" s="88" t="str">
-        <f>IF(COUNTIF(G146:G149, "Failed") &gt; 0, "Failed",IF( COUNTIF(G146:G149, "Pending") &gt; 0, "Pending",IF(COUNTA(G146:G149) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="H143" s="89"/>
-      <c r="I143" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="J143" s="88" t="str">
-        <f>IF(COUNTIF(J146:J149, "Failed") &gt; 0, "Failed",IF( COUNTIF(J146:J149, "Pending") &gt; 0, "Pending",IF(COUNTA(J146:J149) = 0, "", "Success")))</f>
-        <v>Success</v>
-      </c>
-      <c r="K143" s="89"/>
-      <c r="L143" s="90"/>
+      <c r="A143" s="80"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="80"/>
+      <c r="D143" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="E143" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="G143" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="H143" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="I143" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="J143" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="K143" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="L143" s="95" t="s">
+        <v>64</v>
+      </c>
       <c r="M143" s="74"/>
       <c r="N143" s="74"/>
       <c r="O143" s="74"/>
@@ -17817,30 +17948,30 @@
       <c r="Z143" s="74"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D144" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E144" s="93"/>
-      <c r="F144" s="89"/>
-      <c r="G144" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="H144" s="93"/>
-      <c r="I144" s="89"/>
-      <c r="J144" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="K144" s="93"/>
-      <c r="L144" s="89"/>
+      <c r="A144" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="B144" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" s="76" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E144" s="98"/>
+      <c r="F144" s="99"/>
+      <c r="G144" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I144" s="77"/>
+      <c r="J144" s="101"/>
+      <c r="K144" s="102"/>
+      <c r="L144" s="102"/>
       <c r="M144" s="74"/>
       <c r="N144" s="74"/>
       <c r="O144" s="74"/>
@@ -17857,36 +17988,30 @@
       <c r="Z144" s="74"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="79"/>
-      <c r="B145" s="79"/>
-      <c r="C145" s="79"/>
-      <c r="D145" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E145" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F145" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="G145" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H145" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="I145" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="J145" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K145" s="94" t="s">
-        <v>61</v>
-      </c>
-      <c r="L145" s="94" t="s">
-        <v>62</v>
-      </c>
+      <c r="A145" s="113">
+        <v>2.0</v>
+      </c>
+      <c r="B145" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E145" s="98"/>
+      <c r="F145" s="99"/>
+      <c r="G145" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H145" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I145" s="77"/>
+      <c r="J145" s="101"/>
+      <c r="K145" s="102"/>
+      <c r="L145" s="102"/>
       <c r="M145" s="74"/>
       <c r="N145" s="74"/>
       <c r="O145" s="74"/>
@@ -17903,30 +18028,30 @@
       <c r="Z145" s="74"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="95">
-        <v>1.0</v>
-      </c>
-      <c r="B146" s="120" t="s">
-        <v>153</v>
-      </c>
-      <c r="C146" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="D146" s="95" t="s">
+      <c r="A146" s="113">
+        <v>3.0</v>
+      </c>
+      <c r="B146" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="C146" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D146" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E146" s="98"/>
       <c r="F146" s="99"/>
-      <c r="G146" s="95" t="s">
+      <c r="G146" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H146" s="98"/>
-      <c r="I146" s="76"/>
-      <c r="J146" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K146" s="101"/>
-      <c r="L146" s="101"/>
+      <c r="H146" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I146" s="77"/>
+      <c r="J146" s="101"/>
+      <c r="K146" s="102"/>
+      <c r="L146" s="102"/>
       <c r="M146" s="74"/>
       <c r="N146" s="74"/>
       <c r="O146" s="74"/>
@@ -17944,29 +18069,29 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="113">
-        <v>2.0</v>
-      </c>
-      <c r="B147" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="C147" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="D147" s="95" t="s">
+        <v>4.0</v>
+      </c>
+      <c r="B147" s="106" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D147" s="96" t="s">
         <v>44</v>
       </c>
       <c r="E147" s="98"/>
       <c r="F147" s="99"/>
-      <c r="G147" s="95" t="s">
+      <c r="G147" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H147" s="98"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K147" s="101"/>
-      <c r="L147" s="101"/>
+      <c r="H147" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I147" s="77"/>
+      <c r="J147" s="101"/>
+      <c r="K147" s="102"/>
+      <c r="L147" s="102"/>
       <c r="M147" s="74"/>
       <c r="N147" s="74"/>
       <c r="O147" s="74"/>
@@ -17984,29 +18109,29 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="113">
-        <v>3.0</v>
-      </c>
-      <c r="B148" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="C148" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="D148" s="95" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="B148" s="106" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E148" s="98"/>
-      <c r="F148" s="99"/>
-      <c r="G148" s="95" t="s">
+      <c r="E148" s="109"/>
+      <c r="F148" s="110"/>
+      <c r="G148" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H148" s="98"/>
-      <c r="I148" s="76"/>
-      <c r="J148" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K148" s="101"/>
-      <c r="L148" s="101"/>
+      <c r="H148" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I148" s="111"/>
+      <c r="J148" s="101"/>
+      <c r="K148" s="112"/>
+      <c r="L148" s="112"/>
       <c r="M148" s="74"/>
       <c r="N148" s="74"/>
       <c r="O148" s="74"/>
@@ -18024,29 +18149,29 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="113">
-        <v>4.0</v>
-      </c>
-      <c r="B149" s="105" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="B149" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D149" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" s="109"/>
+      <c r="F149" s="110"/>
+      <c r="G149" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C149" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="D149" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" s="98"/>
-      <c r="F149" s="99"/>
-      <c r="G149" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="H149" s="98"/>
-      <c r="I149" s="76"/>
-      <c r="J149" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="K149" s="101"/>
-      <c r="L149" s="101"/>
+      <c r="I149" s="111"/>
+      <c r="J149" s="101"/>
+      <c r="K149" s="112"/>
+      <c r="L149" s="112"/>
       <c r="M149" s="74"/>
       <c r="N149" s="74"/>
       <c r="O149" s="74"/>
@@ -18064,25 +18189,27 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="113">
-        <v>5.0</v>
-      </c>
-      <c r="B150" s="105" t="s">
-        <v>69</v>
-      </c>
-      <c r="C150" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D150" s="106" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="B150" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="C150" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D150" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="E150" s="108"/>
-      <c r="F150" s="109"/>
-      <c r="G150" s="106" t="s">
+      <c r="E150" s="109"/>
+      <c r="F150" s="110"/>
+      <c r="G150" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="H150" s="108"/>
-      <c r="I150" s="110"/>
-      <c r="J150" s="111"/>
+      <c r="H150" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="I150" s="111"/>
+      <c r="J150" s="101"/>
       <c r="K150" s="112"/>
       <c r="L150" s="112"/>
       <c r="M150" s="74"/>
@@ -18101,28 +18228,18 @@
       <c r="Z150" s="74"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="113">
-        <v>6.0</v>
-      </c>
-      <c r="B151" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="C151" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="D151" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E151" s="108"/>
-      <c r="F151" s="109"/>
-      <c r="G151" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H151" s="108"/>
-      <c r="I151" s="110"/>
-      <c r="J151" s="111"/>
-      <c r="K151" s="112"/>
-      <c r="L151" s="112"/>
+      <c r="A151" s="74"/>
+      <c r="B151" s="74"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="74"/>
+      <c r="G151" s="74"/>
+      <c r="H151" s="74"/>
+      <c r="I151" s="74"/>
+      <c r="J151" s="74"/>
+      <c r="K151" s="74"/>
+      <c r="L151" s="74"/>
       <c r="M151" s="74"/>
       <c r="N151" s="74"/>
       <c r="O151" s="74"/>
@@ -18139,28 +18256,18 @@
       <c r="Z151" s="74"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="113">
-        <v>7.0</v>
-      </c>
-      <c r="B152" s="107" t="s">
-        <v>74</v>
-      </c>
-      <c r="C152" s="107" t="s">
-        <v>75</v>
-      </c>
-      <c r="D152" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E152" s="108"/>
-      <c r="F152" s="109"/>
-      <c r="G152" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" s="108"/>
-      <c r="I152" s="110"/>
-      <c r="J152" s="111"/>
-      <c r="K152" s="112"/>
-      <c r="L152" s="112"/>
+      <c r="A152" s="74"/>
+      <c r="B152" s="74"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="74"/>
+      <c r="G152" s="74"/>
+      <c r="H152" s="74"/>
+      <c r="I152" s="74"/>
+      <c r="J152" s="74"/>
+      <c r="K152" s="74"/>
+      <c r="L152" s="74"/>
       <c r="M152" s="74"/>
       <c r="N152" s="74"/>
       <c r="O152" s="74"/>
@@ -41864,62 +41971,6 @@
       <c r="Y998" s="74"/>
       <c r="Z998" s="74"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="74"/>
-      <c r="B999" s="74"/>
-      <c r="C999" s="74"/>
-      <c r="D999" s="74"/>
-      <c r="E999" s="74"/>
-      <c r="F999" s="74"/>
-      <c r="G999" s="74"/>
-      <c r="H999" s="74"/>
-      <c r="I999" s="74"/>
-      <c r="J999" s="74"/>
-      <c r="K999" s="74"/>
-      <c r="L999" s="74"/>
-      <c r="M999" s="74"/>
-      <c r="N999" s="74"/>
-      <c r="O999" s="74"/>
-      <c r="P999" s="74"/>
-      <c r="Q999" s="74"/>
-      <c r="R999" s="74"/>
-      <c r="S999" s="74"/>
-      <c r="T999" s="74"/>
-      <c r="U999" s="74"/>
-      <c r="V999" s="74"/>
-      <c r="W999" s="74"/>
-      <c r="X999" s="74"/>
-      <c r="Y999" s="74"/>
-      <c r="Z999" s="74"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="74"/>
-      <c r="B1000" s="74"/>
-      <c r="C1000" s="74"/>
-      <c r="D1000" s="74"/>
-      <c r="E1000" s="74"/>
-      <c r="F1000" s="74"/>
-      <c r="G1000" s="74"/>
-      <c r="H1000" s="74"/>
-      <c r="I1000" s="74"/>
-      <c r="J1000" s="74"/>
-      <c r="K1000" s="74"/>
-      <c r="L1000" s="74"/>
-      <c r="M1000" s="74"/>
-      <c r="N1000" s="74"/>
-      <c r="O1000" s="74"/>
-      <c r="P1000" s="74"/>
-      <c r="Q1000" s="74"/>
-      <c r="R1000" s="74"/>
-      <c r="S1000" s="74"/>
-      <c r="T1000" s="74"/>
-      <c r="U1000" s="74"/>
-      <c r="V1000" s="74"/>
-      <c r="W1000" s="74"/>
-      <c r="X1000" s="74"/>
-      <c r="Y1000" s="74"/>
-      <c r="Z1000" s="74"/>
-    </row>
   </sheetData>
   <mergeCells count="128">
     <mergeCell ref="G9:I9"/>
@@ -41939,124 +41990,124 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="J95:L95"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="J121:L121"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="J133:L133"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="J144:L144"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G144:I144"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:F109"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="J142:L142"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="G142:I142"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:L101"/>
   </mergeCells>
-  <conditionalFormatting sqref="E11:E16 H11:H16">
+  <conditionalFormatting sqref="E11:E16 H11:H16 H21:H26 H33:H36 H41:H45 H50:H55 H60:H65 H70:H75 H82:H88 H95:H98 H103:H106 H111:H114 H121:H125 H133:H139 H144:H150">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E16 H11:H16">
+  <conditionalFormatting sqref="E11:E16 H11:H16 H21:H26 H33:H36 H41:H45 H50:H55 H60:H65 H70:H75 H82:H88 H95:H98 H103:H106 H111:H114 H121:H125 H133:H139 H144:H150">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"SUCCESS"</formula>
     </cfRule>
@@ -42066,32 +42117,32 @@
       <formula>LEN(TRIM(I5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:L16 B22:B26 B36:B37 B44:B45 B53:B54 B63:B64 B73:B74 B85:B86 B98:B99 B106:B107 B114:B115 B124:B125 C127 B136:C141 B147:C152">
+  <conditionalFormatting sqref="A7:L16 H21:H26 J21:J26 B22:B26 H33:H36 J33:J36 B34:B35 H41:H45 J41:J45 B42:B43 H50:H55 J50:J55 B51:B52 H60:H65 J60:J65 B61:B62 H70:H75 J70:J75 B71:B72 H82:H88 J82:J88 B83:B84 H95:H98 J95:J98 B96:B97 H103:H106 J103:J106 B104:B105 H111:H114 J111:J114 B112:B113 H121:H125 J121:J124 B122:B123 C125 H133:H139 J133:J139 B134:C139 H144:H150 J144:J150 B145:C150">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:L16 B22:B26 B36:B37 B44:B45 B53:B54 B63:B64 B73:B74 B85:B86 B98:B99 B106:B107 B114:B115 B124:B125 C127 B136:C141 B147:C152">
+  <conditionalFormatting sqref="A7:L16 H21:H26 J21:J26 B22:B26 H33:H36 J33:J36 B34:B35 H41:H45 J41:J45 B42:B43 H50:H55 J50:J55 B51:B52 H60:H65 J60:J65 B61:B62 H70:H75 J70:J75 B71:B72 H82:H88 J82:J88 B83:B84 H95:H98 J95:J98 B96:B97 H103:H106 J103:J106 B104:B105 H111:H114 J111:J114 B112:B113 H121:H125 J121:J124 B122:B123 C125 H133:H139 J133:J139 B134:C139 H144:H150 J144:J150 B145:C150">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E26 H21:H26 E35:E38 H35:H38 E43:E47 H43:H47 E52:E57 H52:H57 E62:E67 H62:H67 E72:E77 H72:H77 E84:E90 H84:H90 E97:E100 H97:H100 E105:E108 H105:H108 E113:E116 H113:H116 E123:E127 H123:H127 E135:E141 H135:H141 E146:E152 H146:H152">
+  <conditionalFormatting sqref="E21:E26 H21:H26 E33:E36 H33:H36 E41:E45 H41:H45 E50:E55 H50:H55 E60:E65 H60:H65 E70:E75 H70:H75 E82:E88 H82:H88 E95:E98 H95:H98 E103:E106 H103:H106 E111:E114 H111:H114 E121:E125 H121:H125 E133:E139 H133:H139 E144:E150 H144:H150">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E26 H21:H26 E35:E38 H35:H38 E43:E47 H43:H47 E52:E57 H52:H57 E62:E67 H62:H67 E72:E77 H72:H77 E84:E90 H84:H90 E97:E100 H97:H100 E105:E108 H105:H108 E113:E116 H113:H116 E123:E127 H123:H127 E135:E141 H135:H141 E146:E152 H146:H152">
+  <conditionalFormatting sqref="E21:E26 H21:H26 E33:E36 H33:H36 E41:E45 H41:H45 E50:E55 H50:H55 E60:E65 H60:H65 E70:E75 H70:H75 E82:E88 H82:H88 E95:E98 H95:H98 E103:E106 H103:H106 E111:E114 H111:H114 E121:E125 H121:H125 E133:E139 H133:H139 E144:E150 H144:H150">
     <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"SUCCESS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B26 L18:L26 C19:K26 A32:B38 L32:L38 C33:K38 A40:B47 L40:L47 C41:K47 A49:B57 L49:L57 C50:K57 A59:B67 L59:L67 C60:K67 A69:B77 L69:L77 C70:K77 A81:B90 L81:L90 C82:K90 A94:B100 L94:L100 C95:K100 A102:B108 L102:L108 C103:K108 A110:B116 L110:L116 C111:K116 A120:B127 L120:L127 C121:K127 A132:B141 L132:L141 C133:K141 A143:B152 L143:L152 C144:K152">
+  <conditionalFormatting sqref="A18:B26 L18:L26 C19:K26 A30:B36 L30:L36 C31:K36 A38:B45 L38:L45 C39:K45 A47:B55 L47:L55 C48:K55 A57:B65 L57:L65 C58:K65 A67:B75 L67:L75 C68:K75 A79:B88 L79:L88 C80:K88 A92:B98 L92:L98 C93:K98 A100:B106 L100:L106 C101:K106 A108:B114 L108:L114 C109:K114 A118:B125 L118:L125 C119:K125 A130:B139 L130:L139 C131:K139 A141:B150 L141:L150 C142:K150">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B26 L18:L26 C19:K26 A32:B38 L32:L38 C33:K38 A40:B47 L40:L47 C41:K47 A49:B57 L49:L57 C50:K57 A59:B67 L59:L67 C60:K67 A69:B77 L69:L77 C70:K77 A81:B90 L81:L90 C82:K90 A94:B100 L94:L100 C95:K100 A102:B108 L102:L108 C103:K108 A110:B116 L110:L116 C111:K116 A120:B127 L120:L127 C121:K127 A132:B141 L132:L141 C133:K141 A143:B152 L143:L152 C144:K152">
+  <conditionalFormatting sqref="A18:B26 L18:L26 C19:K26 A30:B36 L30:L36 C31:K36 A38:B45 L38:L45 C39:K45 A47:B55 L47:L55 C48:K55 A57:B65 L57:L65 C58:K65 A67:B75 L67:L75 C68:K75 A79:B88 L79:L88 C80:K88 A92:B98 L92:L98 C93:K98 A100:B106 L100:L106 C101:K106 A108:B114 L108:L114 C109:K114 A118:B125 L118:L125 C119:K125 A130:B139 L130:L139 C131:K139 A141:B150 L141:L150 C142:K150">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -42106,49 +42157,49 @@
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:K32">
+  <conditionalFormatting sqref="C30:K30">
     <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:K32">
+  <conditionalFormatting sqref="C30:K30">
     <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:K40 C49:K49 C59:K59 C69:K69 C81:K81 C94:K94 C102:K102 C110:K110 C120:K120 C132:K132 C143:K143">
+  <conditionalFormatting sqref="C38:K38 C47:K47 C57:K57 C67:K67 C79:K79 C92:K92 C100:K100 C108:K108 C118:K118 C130:K130 C141:K141">
     <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:K40 C49:K49 C59:K59 C69:K69 C81:K81 C94:K94 C102:K102 C110:K110 C120:K120 C132:K132 C143:K143">
+  <conditionalFormatting sqref="C38:K38 C47:K47 C57:K57 C67:K67 C79:K79 C92:K92 C100:K100 C108:K108 C118:K118 C130:K130 C141:K141">
     <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="D11:D16 J11:J16 D21:D26 J21:J26 D35:D38 J35:J38 D43:D47 J43:J47 D52:D57 J52:J57 D62:D67 J62:J67 D72:D77 J72:J77 D84:D90 J84:J90 D97:D100 J97:J100 D105:D108 J105:J108 D113:D116 J113:J116 D123:D127 J123:J127 D135:D141 J135:J141 D146:D152 J146:J152">
+    <dataValidation type="list" allowBlank="1" sqref="D11:D16 J11:J16 D21:D26 J21:J26 D33:D36 J33:J36 D41:D45 J41:J45 D50:D55 J50:J55 D60:D65 J60:J65 D70:D75 J70:J75 D82:D88 J82:J88 D95:D98 J95:J98 D103:D106 J103:J106 D111:D114 J111:J114 D121:D125 J121:J125 D133:D139 J133:J139 D144:D150 J144:J150">
       <formula1>"Success,Failed,Pending"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G11:G16 G21:G26 G35:G38 G43:G47 G52:G57 G62:G67 G72:G77 G84:G90 G97:G100 G105:G108 G113:G116 G123:G127 G135:G141 G146:G152">
+    <dataValidation type="list" allowBlank="1" sqref="G11:G16 G21:G26 G33:G36 G41:G45 G50:G55 G60:G65 G70:G75 G82:G88 G95:G98 G103:G106 G111:G114 G121:G125 G133:G139 G144:G150">
       <formula1>"Success,Failed,Need Test"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B11"/>
     <hyperlink r:id="rId2" ref="B21"/>
-    <hyperlink r:id="rId3" ref="B35"/>
-    <hyperlink r:id="rId4" ref="B43"/>
-    <hyperlink r:id="rId5" ref="B52"/>
-    <hyperlink r:id="rId6" ref="B62"/>
-    <hyperlink r:id="rId7" ref="B72"/>
-    <hyperlink r:id="rId8" ref="B84"/>
-    <hyperlink r:id="rId9" ref="B97"/>
-    <hyperlink r:id="rId10" ref="B105"/>
-    <hyperlink r:id="rId11" ref="B113"/>
-    <hyperlink r:id="rId12" ref="B123"/>
-    <hyperlink r:id="rId13" ref="B136"/>
-    <hyperlink r:id="rId14" ref="B147"/>
+    <hyperlink r:id="rId3" ref="B33"/>
+    <hyperlink r:id="rId4" ref="B41"/>
+    <hyperlink r:id="rId5" ref="B50"/>
+    <hyperlink r:id="rId6" ref="B60"/>
+    <hyperlink r:id="rId7" ref="B70"/>
+    <hyperlink r:id="rId8" ref="B82"/>
+    <hyperlink r:id="rId9" ref="B95"/>
+    <hyperlink r:id="rId10" ref="B103"/>
+    <hyperlink r:id="rId11" ref="B111"/>
+    <hyperlink r:id="rId12" ref="B121"/>
+    <hyperlink r:id="rId13" ref="B134"/>
+    <hyperlink r:id="rId14" ref="B145"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -42178,44 +42229,82 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="123" t="s">
+      <c r="A1" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="125" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="125" t="s">
+      <c r="D1" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="124" t="s">
         <v>160</v>
       </c>
+      <c r="F1" s="124" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="124" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130" t="s">
-        <v>161</v>
-      </c>
-      <c r="G2" s="131" t="s">
+      <c r="A2" s="125" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="132"/>
+      <c r="H2" s="131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="125" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="130" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="131" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -43199,10 +43288,10 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3">
       <formula1>"Low,Normal,High,Critical"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3">
       <formula1>"Open,Ready to Test,On Progress,Hold,Done,Failed"</formula1>
     </dataValidation>
   </dataValidations>
